--- a/dedup2/dedup2_Penginapan.xlsx
+++ b/dedup2/dedup2_Penginapan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K236"/>
+  <dimension ref="A1:J236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -507,25 +502,24 @@
           <t>0811-2646-412</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F2" t="n">
-        <v>4.7</v>
+        <v>-7.885947</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.885947</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.321184</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bahagia+Sederhana+Homestay/@-7.8859472,110.2490857,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7aff4c42a647bf:0xdf9e1291833d4a5f!5m2!4m1!1i2!8m2!3d-7.8859472!4d110.3211835!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11fjbksn1n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -544,25 +538,24 @@
           <t>(021) 80629666</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.5</v>
+        <v>-7.867001</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.867001</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.340901</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Omah+Cepit/@-7.8859472,110.2490857,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a579591107aa9:0x5c9e6e6fe7331c77!5m2!4m1!1i2!8m2!3d-7.8670012!4d110.340901!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11fkqzmdfj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Omah+Cepit/@-7.8859472,110.2490857,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a579591107aa9:0x5c9e6e6fe7331c77!5m2!4m1!1i2!8m2!3d-7.8670012!4d110.340901!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11fkqzmdfj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>1 hari lalu di 
 Google</t>
@@ -586,25 +579,24 @@
           <t>0819-0555-5662</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.4</v>
+        <v>-7.852238</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.852238</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.318458</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Astuti+Gallery+Homestay/@-7.8859472,110.2490857,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af861cfe3c539:0xb29689223ba9453c!5m2!4m1!1i2!8m2!3d-7.8522377!4d110.318458!15sChFQZW5naW5hcGFuIEJhbnR1bJIBB2xvZGdpbmfgAQA!16s%2Fg%2F11xglpfdw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -627,25 +619,24 @@
           <t>0857-9947-2589</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.4</v>
+        <v>-7.845627</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.845627</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.313443</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Blue+Garden+Yogyakarta/@-7.8859472,110.2490857,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af88ea5f1c065:0x5e9d72fe1fce0b40!5m2!4m1!1i2!8m2!3d-7.8456271!4d110.3134428!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11cmxz95vw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -664,25 +655,24 @@
           <t>(0274) 6463148</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.6</v>
+        <v>-7.872745</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.872745</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.354564</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Omah+Tembi+Homestay/@-7.8859472,110.2490857,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a560cb504c123:0x5d76a0e9229f3a42!5m2!4m1!1i2!8m2!3d-7.8727455!4d110.3545642!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F1pzywnr6s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Omah+Tembi+Homestay/@-7.8859472,110.2490857,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a560cb504c123:0x5d76a0e9229f3a42!5m2!4m1!1i2!8m2!3d-7.8727455!4d110.3545642!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F1pzywnr6s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>6 hari lalu di 
 Google</t>
@@ -710,25 +700,24 @@
           <t>0812-2416-1110</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.6</v>
+        <v>-7.840178</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.840178</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.287045</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/RAJAKLANA+Resort+And+Spa+Jogja/@-7.8401782,110.2149472,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af84dbfef4183:0xfe33085a16aaa4d8!5m2!4m1!1i2!8m2!3d-7.8401782!4d110.287045!15sChFQZW5naW5hcGFuIEJhbnR1bJIBDHJlc29ydF9ob3RlbOABAA!16s%2Fg%2F11ddxcpv1s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -747,25 +736,24 @@
           <t>0877-8636-4656</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.3</v>
+        <v>-7.84274</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.84274</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.31545</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Villa+Alas+Adem/@-7.8401782,110.2149472,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9006b6b7e09:0x10f6c4e6d72e5ce6!5m2!4m1!1i2!8m2!3d-7.8427404!4d110.3154497!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11vxyyt7_2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Alas+Adem/@-7.8401782,110.2149472,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9006b6b7e09:0x10f6c4e6d72e5ce6!5m2!4m1!1i2!8m2!3d-7.8427404!4d110.3154497!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11vxyyt7_2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>6 hari lalu di 
 Google</t>
@@ -793,25 +781,24 @@
           <t>0895-3913-53639</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.9</v>
+        <v>-7.903674</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.903674</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.32499</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Homestay+Rumah+Bahagia+Cepor/@-7.9036742,110.2528918,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7aff1694df167d:0x921687efbbf051d4!5m2!4m1!1i2!8m2!3d-7.9036742!4d110.3249896!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11t3gtsx10?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Homestay+Rumah+Bahagia+Cepor/@-7.9036742,110.2528918,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7aff1694df167d:0x921687efbbf051d4!5m2!4m1!1i2!8m2!3d-7.9036742!4d110.3249896!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11t3gtsx10?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>2 minggu lalu di 
 Google</t>
@@ -835,25 +822,24 @@
           <t>0852-8232-3455</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.4</v>
+        <v>-7.885021</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.885021</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.323843</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Homestay+Syariah+Bantul/@-7.9036742,110.2528918,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7aff69014dff01:0xf31d5d031bd58cf3!5m2!4m1!1i2!8m2!3d-7.8850208!4d110.3238434!15sChFQZW5naW5hcGFuIEJhbnR1bJIBC2d1ZXN0X2hvdXNl4AEA!16s%2Fg%2F11y3n6_l0d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -876,25 +862,24 @@
           <t>0896-7391-1991</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.9</v>
+        <v>-7.841756</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.841756</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.319732</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Villa+Sare/@-7.8417564,110.247634,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af93575ad3cdb:0x55dcb5201be9669b!5m2!4m1!1i2!8m2!3d-7.8417564!4d110.3197318!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11vb8pk026?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Sare/@-7.8417564,110.247634,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af93575ad3cdb:0x55dcb5201be9669b!5m2!4m1!1i2!8m2!3d-7.8417564!4d110.3197318!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11vb8pk026?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>seminggu lalu di 
 Google</t>
@@ -918,25 +903,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.7</v>
+        <v>-7.894776</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.894776</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.322479</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Wisma+Sanggrahan+Syariah+Yogyakarta/@-7.8417564,110.247634,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7aff5ba1653e3b:0xe07845f6658b09d8!5m2!4m1!1i2!8m2!3d-7.8947763!4d110.3224785!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11f_4rxdqc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Wisma+Sanggrahan+Syariah+Yogyakarta/@-7.8417564,110.247634,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7aff5ba1653e3b:0xe07845f6658b09d8!5m2!4m1!1i2!8m2!3d-7.8947763!4d110.3224785!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11f_4rxdqc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>3 bulan lalu di 
 Google</t>
@@ -964,25 +948,24 @@
           <t>0899-5677-388</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.5</v>
+        <v>-7.871495</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.871495</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.353484</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/dOmah+Yogya+Hotel/@-7.8417564,110.247634,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a560c85870133:0x7c75149ee345d6ff!5m2!4m1!1i2!8m2!3d-7.8714954!4d110.3534843!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F1vh8mg78?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1005,25 +988,24 @@
           <t>0813-9213-3205</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.8</v>
+        <v>-7.872602</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.872602</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.354656</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Homestay-Tembi/@-7.8417564,110.247634,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a57c1398c9553:0x4a4bd0e6f2974de!5m2!4m1!1i2!8m2!3d-7.8726022!4d110.3546561!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11vzf2yqr2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1046,25 +1028,24 @@
           <t>0821-9005-9168</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.7</v>
+        <v>-7.873705</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.873705</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.35389</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Yukke+Tembi+Homestay/@-7.8417564,110.247634,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a571b134f5267:0x14773e6e666a8081!5m2!4m1!1i2!8m2!3d-7.8737054!4d110.35389!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11txhlq1d8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1083,25 +1064,24 @@
           <t>0813-2753-1407</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.6</v>
+        <v>-7.841999</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.841999</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.322738</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Villa+Kayu+Jogja/@-7.8417564,110.247634,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9ead3a08ae3:0x9b8b02b0037ddae8!5m2!4m1!1i2!8m2!3d-7.8419995!4d110.3227379!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11h3qrl4q7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Kayu+Jogja/@-7.8417564,110.247634,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9ead3a08ae3:0x9b8b02b0037ddae8!5m2!4m1!1i2!8m2!3d-7.8419995!4d110.3227379!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11h3qrl4q7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>2 minggu lalu di 
 Google</t>
@@ -1129,25 +1109,24 @@
           <t>0853-2626-6868</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.4</v>
+        <v>-7.860672</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.860672</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.297899</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dewisri+Homestay/@-7.8417564,110.247634,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9bdffbe53a3:0x46923f27ac321f53!5m2!4m1!1i2!8m2!3d-7.8606717!4d110.2978994!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11qnljxlw_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dewisri+Homestay/@-7.8417564,110.247634,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9bdffbe53a3:0x46923f27ac321f53!5m2!4m1!1i2!8m2!3d-7.8606717!4d110.2978994!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11qnljxlw_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>6 bulan lalu di 
 Google</t>
@@ -1175,25 +1154,24 @@
           <t>0823-2341-4406</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.9</v>
+        <v>-7.867192</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.867192</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.317045</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Amartha+Indotama+Guest+House/@-7.8417564,110.247634,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9926bfa7fdf:0xfaee025c7b82d774!5m2!4m1!1i2!8m2!3d-7.8671923!4d110.3170448!15sChFQZW5naW5hcGFuIEJhbnR1bJIBC2d1ZXN0X2hvdXNl4AEA!16s%2Fg%2F11q57tds6d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1212,25 +1190,24 @@
           <t>0857-9934-6472</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.5</v>
+        <v>-7.857009</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.857009</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.401201</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pendopo+Kayuwanan+Homestay+Syariah+near+terminal+Giwangan/@-7.8570086,110.3291033,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a56954403e55b:0x699415cd5a65fd9!5m2!4m1!1i2!8m2!3d-7.8570086!4d110.4012011!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11f3n2b7j1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1249,25 +1226,24 @@
           <t>0815-7885-1954</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.8</v>
+        <v>-7.83728</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.83728</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.320333</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Rumah+Paron+Homestay/@-7.8372801,110.2482356,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af94f1273922b:0x5c6caa39742ce6a2!5m2!4m1!1i2!8m2!3d-7.8372801!4d110.3203334!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11qby2twb0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1290,25 +1266,24 @@
           <t>0812-2620-9870</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.9</v>
+        <v>-7.855324</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.855324</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.283503</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Omah+Ndoro+SugihArti/@-7.8553241,110.2114055,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9df0d515ae1:0xebd8104262561b17!5m2!4m1!1i2!8m2!3d-7.8553241!4d110.2835033!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11kq68f_w9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1331,25 +1306,24 @@
           <t>0817-7529-3332</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>5</v>
+      </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>-7.860847</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.860847</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.29543</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Homestay+dan+Batik+erlangga/@-7.8553241,110.2114055,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af93ee3bff08f:0x9f83d96db2b2f53!5m2!4m1!1i2!8m2!3d-7.8608468!4d110.2954301!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBmhvc3RlbOABAA!16s%2Fg%2F11nnh542yx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1368,25 +1342,24 @@
           <t>0822-2700-0302</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F23" t="n">
-        <v>3.8</v>
+        <v>-7.890756</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.890756</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.328858</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kos+putra%2Fputri+Liaolin/@-7.8372801,110.2482356,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7aff99eb8bcb31:0x3393348679e82935!5m2!4m1!1i2!8m2!3d-7.8907556!4d110.3288578!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11t5d1325l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1405,25 +1378,24 @@
           <t>0821-3880-9441</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.9</v>
+        <v>-7.863287</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.863287</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.349278</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/D+Bamboo+House/@-7.8372801,110.2482356,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a57e05cee6277:0x164e1c9a07500968!5m2!4m1!1i2!8m2!3d-7.8632866!4d110.3492777!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11mx_54rjz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1446,25 +1418,24 @@
           <t>0857-4374-2289</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>5</v>
+      </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>-7.836001</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.836001</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.306157</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Yustien+Homestay+Jogja/@-7.8372801,110.2482356,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af922d0dc218d:0x8df3a2a21b1a9432!5m2!4m1!1i2!8m2!3d-7.8360013!4d110.3061571!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11y8zvdy7v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Yustien+Homestay+Jogja/@-7.8372801,110.2482356,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af922d0dc218d:0x8df3a2a21b1a9432!5m2!4m1!1i2!8m2!3d-7.8360013!4d110.3061571!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11y8zvdy7v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>1 jam lalu di 
 Google</t>
@@ -1488,25 +1459,24 @@
           <t>0811-296-533</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F26" t="n">
-        <v>3.9</v>
+        <v>-7.90487</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.90487</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.34508</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Homestay+Omah+Putih/@-7.9048704,110.2729818,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a557c6427d841:0x6c5096e829b59364!5m2!4m1!1i2!8m2!3d-7.9048704!4d110.3450796!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11ssjn87yj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Homestay+Omah+Putih/@-7.9048704,110.2729818,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a557c6427d841:0x6c5096e829b59364!5m2!4m1!1i2!8m2!3d-7.9048704!4d110.3450796!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11ssjn87yj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>7 bulan lalu di 
 Google</t>
@@ -1530,25 +1500,24 @@
           <t>0812-1134-2889</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>5</v>
+      </c>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>-7.843934</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.843934</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.313696</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Rindoe+Jogja+Holiday+Home/@-7.8440625,110.2554647,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af911c6ab5515:0x8f13e9f7e726825b!5m2!4m1!1i2!8m2!3d-7.8439342!4d110.3136956!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11kjgc2kk6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1571,25 +1540,24 @@
           <t>(021) 29707601</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4</v>
+      </c>
       <c r="F28" t="n">
-        <v>4</v>
+        <v>-7.917822</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.917822</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.370989</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/OYO+2047+Opak+Village+Bed+%26+Breakfast/@-7.9178216,110.2988911,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a55a99512a77f:0x90df051ac50a06d8!5m2!4m1!1i2!8m2!3d-7.9178216!4d110.3709889!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11gf8ggvlt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1612,25 +1580,24 @@
           <t>0821-3306-2703</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>5</v>
+      </c>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>-7.915695</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.915695</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.397202</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sri-Ga%C3%AFa+Yogyakarta/@-7.9178216,110.2988911,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a545f263a42a5:0x81100f1e06618f25!5m2!4m1!1i2!8m2!3d-7.9156955!4d110.3972022!15sChFQZW5naW5hcGFuIEJhbnR1bJIBC2d1ZXN0X2hvdXNl4AEA!16s%2Fg%2F11c6_zxd4j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sri-Ga%C3%AFa+Yogyakarta/@-7.9178216,110.2988911,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a545f263a42a5:0x81100f1e06618f25!5m2!4m1!1i2!8m2!3d-7.9156955!4d110.3972022!15sChFQZW5naW5hcGFuIEJhbnR1bJIBC2d1ZXN0X2hvdXNl4AEA!16s%2Fg%2F11c6_zxd4j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>1 hari lalu di 
 Google</t>
@@ -1658,25 +1625,24 @@
           <t>0812-3140-2025</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.8</v>
+        <v>-7.841767</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.841767</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.321376</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Villa+Jogja+Senang/@-7.8417673,110.2492784,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af94d49c712d9:0x7f25941b984e99a!5m2!4m1!1i2!8m2!3d-7.8417673!4d110.3213762!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11rdbd3n_9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Jogja+Senang/@-7.8417673,110.2492784,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af94d49c712d9:0x7f25941b984e99a!5m2!4m1!1i2!8m2!3d-7.8417673!4d110.3213762!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11rdbd3n_9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>2 hari lalu di 
 Google</t>
@@ -1705,22 +1671,21 @@
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>-7.87041</v>
+      </c>
       <c r="G31" t="n">
-        <v>-7.87041</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.323737</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/CAMPING+GROUND+GUNUNG+MIJIL+HILS/@-7.8417673,110.2492784,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af8af5f3ad74b:0x852c794209554577!5m2!4m1!1i2!8m2!3d-7.8704097!4d110.3237372!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEWJlZF9hbmRfYnJlYWtmYXN04AEA!16s%2Fg%2F11t25lwk_1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1743,25 +1708,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>5</v>
+      </c>
       <c r="F32" t="n">
-        <v>5</v>
+        <v>-7.840207</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.840207</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.318018</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/The+Lavana+Greenkhaza+Villa+Jogja/@-7.8417673,110.2492784,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9205ad1170d:0x7ebf92b608db181!5m2!4m1!1i2!8m2!3d-7.8402067!4d110.3180176!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11s930clnk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/The+Lavana+Greenkhaza+Villa+Jogja/@-7.8417673,110.2492784,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9205ad1170d:0x7ebf92b608db181!5m2!4m1!1i2!8m2!3d-7.8402067!4d110.3180176!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11s930clnk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>2 tahun lalu di 
 Google</t>
@@ -1785,25 +1749,24 @@
           <t>0813-2987-1559</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.8</v>
+        <v>-7.841313</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.841313</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.317116</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/nextdoor+nature/@-7.8417673,110.2492784,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af906d74881a9:0x59f26ffaae497245!5m2!4m1!1i2!8m2!3d-7.8413133!4d110.3171164!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11jcl7w0m1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1822,25 +1785,24 @@
           <t>0812-6840-1910</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.8</v>
+        <v>-7.861297</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.861297</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.331035</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/JOGLOPARI+Guesthouse+(Bukan+utk+pasangan+non-pasutri)/@-7.8417673,110.2492784,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a5767e09fc2bf:0x2f0b9944bdb2caab!5m2!4m1!1i2!8m2!3d-7.8612973!4d110.3310348!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11h__jtcl5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/JOGLOPARI+Guesthouse+(Bukan+utk+pasangan+non-pasutri)/@-7.8417673,110.2492784,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a5767e09fc2bf:0x2f0b9944bdb2caab!5m2!4m1!1i2!8m2!3d-7.8612973!4d110.3310348!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11h__jtcl5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>2 bulan lalu di 
 Google</t>
@@ -1860,25 +1822,24 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>5</v>
+      </c>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>-7.871438</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.871438</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.375387</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Homestay+Gloria/@-7.871438,110.3032889,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a573565269357:0x7611134ab670769b!5m2!4m1!1i2!8m2!3d-7.871438!4d110.3753867!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11sw0fm3jn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1901,25 +1862,24 @@
           <t>0882-3201-8197</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>5</v>
+      </c>
       <c r="F36" t="n">
-        <v>5</v>
+        <v>-7.879254</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.879254</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.336875</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/EDHOST+D'CASTILLO/@-7.8404952,110.2460296,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a5784f5641d17:0xed7ac26087beff1e!5m2!4m1!1i2!8m2!3d-7.8792545!4d110.3368749!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11h890wlhy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/EDHOST+D'CASTILLO/@-7.8404952,110.2460296,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a5784f5641d17:0xed7ac26087beff1e!5m2!4m1!1i2!8m2!3d-7.8792545!4d110.3368749!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11h890wlhy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>2 bulan lalu di 
 Google</t>
@@ -1947,25 +1907,24 @@
           <t>0821-1001-2526</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>5</v>
+      </c>
       <c r="F37" t="n">
-        <v>5</v>
+        <v>-7.838312</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.838312</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.310444</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Casa+Djiwa/@-7.8404952,110.2460296,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af986115fd0c3:0x730cb6f5b65d7b5e!5m2!4m1!1i2!8m2!3d-7.838312!4d110.3104444!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11pv4w6khx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Casa+Djiwa/@-7.8404952,110.2460296,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af986115fd0c3:0x730cb6f5b65d7b5e!5m2!4m1!1i2!8m2!3d-7.838312!4d110.3104444!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11pv4w6khx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>sebulan lalu di 
 Google</t>
@@ -1989,25 +1948,24 @@
           <t>0817-788-016</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>3</v>
+      </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>-7.870036</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.870036</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.390963</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/OYO+93396+Pondok+Wisata+Sri+Mulyo/@-7.870036,110.3188652,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a569b2e3ae607:0xcc67a109cbf9b36!5m2!4m1!1i2!8m2!3d-7.870036!4d110.390963!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11vs3l0j11?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/OYO+93396+Pondok+Wisata+Sri+Mulyo/@-7.870036,110.3188652,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a569b2e3ae607:0xcc67a109cbf9b36!5m2!4m1!1i2!8m2!3d-7.870036!4d110.390963!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11vs3l0j11?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>4 bulan lalu di 
 Google</t>
@@ -2031,25 +1989,24 @@
           <t>0811-296-533</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F39" t="n">
-        <v>4.3</v>
+        <v>-7.840636</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.840636</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.327278</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Lyandra+Villa+by+Aliandra/@-7.840636,110.2551805,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af953cf6d9237:0xfb28796405805472!5m2!4m1!1i2!8m2!3d-7.840636!4d110.3272783!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11txkw4q55?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2072,25 +2029,24 @@
           <t>(021) 29707601</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F40" t="n">
-        <v>3.7</v>
+        <v>-8.023294999999999</v>
       </c>
       <c r="G40" t="n">
-        <v>-8.023294999999999</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.333291</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/OYO+90051+Guest+House+Parangtritis/@-8.0232947,110.2611934,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a5505f89026f7:0xd5c6fe7906ea3fc8!5m2!4m1!1i2!8m2!3d-8.0232947!4d110.3332912!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11m__7n1x7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2109,25 +2065,24 @@
           <t>(0274) 4537753</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F41" t="n">
-        <v>3.9</v>
+        <v>-8.022633000000001</v>
       </c>
       <c r="G41" t="n">
-        <v>-8.022633000000001</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.334172</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Hotel+Family+Syariah/@-8.0232947,110.2611934,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a57ae064315a9:0x5ba23c486a10f5a2!5m2!4m1!1i2!8m2!3d-8.0226328!4d110.3341723!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11cn5x9q3k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Hotel+Family+Syariah/@-8.0232947,110.2611934,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a57ae064315a9:0x5ba23c486a10f5a2!5m2!4m1!1i2!8m2!3d-8.0226328!4d110.3341723!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11cn5x9q3k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>seminggu lalu di 
 Google</t>
@@ -2155,25 +2110,24 @@
           <t>0812-2225-3630</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F42" t="n">
-        <v>4.8</v>
+        <v>-7.860247</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.860247</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.349707</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/The+Zenn+by+Villa+kitta+jogja/@-7.8602475,110.2776088,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a57c8f6392091:0x268581b57e66e0de!5m2!4m1!1i2!8m2!3d-7.8602475!4d110.3497066!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11t_vrl0gp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/The+Zenn+by+Villa+kitta+jogja/@-7.8602475,110.2776088,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a57c8f6392091:0x268581b57e66e0de!5m2!4m1!1i2!8m2!3d-7.8602475!4d110.3497066!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11t_vrl0gp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
         <is>
           <t>2 minggu lalu di 
 Google</t>
@@ -2197,25 +2151,24 @@
           <t>0812-3111-8147</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F43" t="n">
-        <v>4.8</v>
+        <v>-7.875201</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.875201</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.354374</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Huni+Homestay+Tembi/@-7.8602475,110.2776088,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a574b7945077d:0x62fb284f8b8a2a!5m2!4m1!1i2!8m2!3d-7.8752015!4d110.354374!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11nnr_yk7d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Huni+Homestay+Tembi/@-7.8602475,110.2776088,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a574b7945077d:0x62fb284f8b8a2a!5m2!4m1!1i2!8m2!3d-7.8752015!4d110.354374!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11nnr_yk7d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>1 hari lalu di 
 Google</t>
@@ -2239,25 +2192,24 @@
           <t>0818-464-833</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F44" t="n">
-        <v>4.8</v>
+        <v>-7.850859</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.850859</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.322044</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/D'JIPANGAN+HOME/@-7.8602475,110.2776088,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9be8be55f67:0xaed81c16c564b523!5m2!4m1!1i2!8m2!3d-7.8508588!4d110.3220443!15sChFQZW5naW5hcGFuIEJhbnR1bJIBDHJlc29ydF9ob3RlbOABAA!16s%2Fg%2F11sjngpwt7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2276,25 +2228,24 @@
           <t>0813-9218-5777</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F45" t="n">
-        <v>4.7</v>
+        <v>-7.866646</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.866646</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.344188</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Omah+Tengah+Sawah+Guest+HOUSE/@-7.8602475,110.2776088,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a56108aa29f91:0xf595dd6bc00c983!5m2!4m1!1i2!8m2!3d-7.8666463!4d110.3441878!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11g1lq8jld?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Omah+Tengah+Sawah+Guest+HOUSE/@-7.8602475,110.2776088,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a56108aa29f91:0xf595dd6bc00c983!5m2!4m1!1i2!8m2!3d-7.8666463!4d110.3441878!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11g1lq8jld?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>2 tahun lalu di 
 Google</t>
@@ -2322,25 +2273,24 @@
           <t>0878-1670-3937</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>5</v>
+      </c>
       <c r="F46" t="n">
-        <v>5</v>
+        <v>-7.88513</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.88513</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.360547</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kenka_Homestay/@-7.8602475,110.2776088,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a55cf0ae63a5f:0x524c669a4f0ea7cd!5m2!4m1!1i2!8m2!3d-7.8851303!4d110.360547!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11y2pprm87?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2359,25 +2309,24 @@
           <t>0823-2361-9588</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F47" t="n">
-        <v>4.8</v>
+        <v>-8.020683</v>
       </c>
       <c r="G47" t="n">
-        <v>-8.020683</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.334817</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Villa+Joglo+Paris/@-8.0206834,110.2627192,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7bab0055afebb5:0xb2d3781f1d304b97!5m2!4m1!1i2!8m2!3d-8.0206834!4d110.334817!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11vt616lh2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Joglo+Paris/@-8.0206834,110.2627192,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7bab0055afebb5:0xb2d3781f1d304b97!5m2!4m1!1i2!8m2!3d-8.0206834!4d110.334817!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11vt616lh2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>5 hari lalu di 
 Google</t>
@@ -2405,25 +2354,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>3.6</v>
+      </c>
       <c r="F48" t="n">
-        <v>3.6</v>
+        <v>-8.02398</v>
       </c>
       <c r="G48" t="n">
-        <v>-8.02398</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.333041</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Hotel+Widodo+1+Parangtritis+Mitra+RedDoorz/@-8.0206834,110.2627192,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7baa7530395913:0x551772e33f12dd8f!5m2!4m1!1i2!8m2!3d-8.0239796!4d110.3330405!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11g8nj1bsb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2446,25 +2394,24 @@
           <t>0813-2825-1219</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F49" t="n">
-        <v>4.7</v>
+        <v>-7.872743</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.872743</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.354465</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kampung+Tembi+Guest+House/@-7.8727428,110.2823667,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a560cb47629af:0xed2b1d162ebfbecf!5m2!4m1!1i2!8m2!3d-7.8727428!4d110.3544645!15sChFQZW5naW5hcGFuIEJhbnR1bJIBC2d1ZXN0X2hvdXNl4AEA!16s%2Fg%2F11gghcs2mz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2483,25 +2430,24 @@
           <t>0812-1678-4004</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>5</v>
+      </c>
       <c r="F50" t="n">
-        <v>5</v>
+        <v>-7.846822</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.846822</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.32108</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dry+Villa/@-7.8468224,110.2489819,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af90018e6f883:0xf4774214d7585bd!5m2!4m1!1i2!8m2!3d-7.8468224!4d110.3210797!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11vwyks01v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dry+Villa/@-7.8468224,110.2489819,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af90018e6f883:0xf4774214d7585bd!5m2!4m1!1i2!8m2!3d-7.8468224!4d110.3210797!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11vwyks01v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
         <is>
           <t>6 hari lalu di 
 Google</t>
@@ -2521,25 +2467,24 @@
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F51" t="n">
-        <v>3.9</v>
+        <v>-7.867174</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.867174</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.340905</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Wisma+Mairatu/@-7.8468224,110.2489819,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a561b0eb87427:0x6121f6baf3de00ca!5m2!4m1!1i2!8m2!3d-7.8671736!4d110.3409045!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F1pp2vj87t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Wisma+Mairatu/@-7.8468224,110.2489819,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a561b0eb87427:0x6121f6baf3de00ca!5m2!4m1!1i2!8m2!3d-7.8671736!4d110.3409045!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F1pp2vj87t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
         <is>
           <t>setahun lalu di 
 Google</t>
@@ -2563,25 +2508,24 @@
           <t>0823-2833-8900</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F52" t="n">
-        <v>4.9</v>
+        <v>-7.840629</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.840629</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.318064</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sun+Moon+Star+Villas/@-7.8468224,110.2489819,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af98d6cdc40d3:0x8b257605215c498a!5m2!4m1!1i2!8m2!3d-7.8406294!4d110.3180637!15sChFQZW5naW5hcGFuIEJhbnR1bJIBB2xvZGdpbmfgAQA!16s%2Fg%2F11fnvycb7l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J52" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sun+Moon+Star+Villas/@-7.8468224,110.2489819,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af98d6cdc40d3:0x8b257605215c498a!5m2!4m1!1i2!8m2!3d-7.8406294!4d110.3180637!15sChFQZW5naW5hcGFuIEJhbnR1bJIBB2xvZGdpbmfgAQA!16s%2Fg%2F11fnvycb7l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
         <is>
           <t>sebulan lalu di 
 Google</t>
@@ -2609,25 +2553,24 @@
           <t>0877-9442-7578</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>5</v>
+      </c>
       <c r="F53" t="n">
-        <v>5</v>
+        <v>-7.836659</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.836659</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.295591</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Villa+Graha+Wisesa+2/@-7.8468224,110.2489819,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af90e007fdbd9:0xaabb201caed3fa06!5m2!4m1!1i2!8m2!3d-7.836659!4d110.2955911!15sChFQZW5naW5hcGFuIEJhbnR1bJIBDHJlc29ydF9ob3RlbOABAA!16s%2Fg%2F11h63jrt3z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2650,25 +2593,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>4</v>
+      </c>
       <c r="F54" t="n">
-        <v>4</v>
+        <v>-7.840979</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.840979</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.327157</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Aliandra+Villa+by+The+Lavana/@-7.8468224,110.2489819,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9422327ba69:0xc69291a082b321f4!5m2!4m1!1i2!8m2!3d-7.8409789!4d110.3271574!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11sty211x5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2691,25 +2633,24 @@
           <t>0813-2516-5289</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F55" t="n">
-        <v>4.6</v>
+        <v>-7.889223</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.889223</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.3497</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Arsya+Homestay/@-7.8468224,110.2489819,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a55aaa6e090eb:0x196f27094eca8ab9!5m2!4m1!1i2!8m2!3d-7.8892234!4d110.3497004!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11rf6lvqxk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2724,25 +2665,24 @@
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F56" t="n">
-        <v>4.9</v>
+        <v>-7.869278</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.869278</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.307528</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Rumah+Pajangan+Jogja/@-7.8468224,110.2489819,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af96f2bd34c47:0x2e093ac3a19e2822!5m2!4m1!1i2!8m2!3d-7.869278!4d110.307528!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWxvZGdl4AEA!16s%2Fg%2F11h9p6ljy_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2761,25 +2701,24 @@
           <t>0821-8888-9059</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F57" t="n">
-        <v>4.8</v>
+        <v>-7.882527</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.882527</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.356652</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/BNB+VILLA+JOGJA+unit+Taru/@-7.8468224,110.2489819,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a55000887a7ef:0xc8afbf14dc196457!5m2!4m1!1i2!8m2!3d-7.8825265!4d110.3566518!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11y2np7n88?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2798,25 +2737,24 @@
           <t>0878-3560-5044</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>5</v>
+      </c>
       <c r="F58" t="n">
-        <v>5</v>
+        <v>-7.841176</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.841176</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.319121</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr">
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Hello+Belle+Villa/@-7.8468224,110.2489819,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af97eabacce3b:0xa8ade9c1b71b511!5m2!4m1!1i2!8m2!3d-7.8411764!4d110.3191213!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11jsxrbcdf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2831,25 +2769,24 @@
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F59" t="n">
-        <v>4.9</v>
+        <v>-7.871418</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.871418</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.29249</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pajangan+Homestay/@-7.8468224,110.2489819,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af972717a391d:0xbb760200db95b393!5m2!4m1!1i2!8m2!3d-7.8714184!4d110.2924898!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11jzr05cgd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J59" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pajangan+Homestay/@-7.8468224,110.2489819,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af972717a391d:0xbb760200db95b393!5m2!4m1!1i2!8m2!3d-7.8714184!4d110.2924898!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11jzr05cgd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
         <is>
           <t>11 bulan lalu di 
 Google</t>
@@ -2877,25 +2814,24 @@
           <t>0819-0405-5564</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F60" t="n">
-        <v>3.8</v>
+        <v>-8.017637000000001</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.017637000000001</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.325127</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Losmen+Alden/@-8.0176368,110.2530294,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7b009ad83c978d:0xc2dbcb7a000ce66!5m2!4m1!1i2!8m2!3d-8.0176368!4d110.3251272!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWxvZGdl4AEA!16s%2Fg%2F11bc7qpsy3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J60" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Losmen+Alden/@-8.0176368,110.2530294,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7b009ad83c978d:0xc2dbcb7a000ce66!5m2!4m1!1i2!8m2!3d-8.0176368!4d110.3251272!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWxvZGdl4AEA!16s%2Fg%2F11bc7qpsy3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
         <is>
           <t>2 minggu lalu di 
 Google</t>
@@ -2919,25 +2855,24 @@
           <t>0857-2962-3254</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F61" t="n">
-        <v>4.3</v>
+        <v>-7.841538</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.841538</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.315061</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mbok+Niem+Cafe+and+Cottage/@-7.8415377,110.2429631,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af97b98bd26f3:0x1e99b651d591c7cf!5m2!4m1!1i2!8m2!3d-7.8415377!4d110.3150609!15sChFQZW5naW5hcGFuIEJhbnR1bJIBFWluZG9uZXNpYW5fcmVzdGF1cmFudOABAA!16s%2Fg%2F11rck1v7kb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J61" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mbok+Niem+Cafe+and+Cottage/@-7.8415377,110.2429631,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af97b98bd26f3:0x1e99b651d591c7cf!5m2!4m1!1i2!8m2!3d-7.8415377!4d110.3150609!15sChFQZW5naW5hcGFuIEJhbnR1bJIBFWluZG9uZXNpYW5fcmVzdGF1cmFudOABAA!16s%2Fg%2F11rck1v7kb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
         <is>
           <t>setahun lalu di 
 Google</t>
@@ -2965,25 +2900,24 @@
           <t>0813-2526-6284</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F62" t="n">
-        <v>4.7</v>
+        <v>-7.91697</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.91697</v>
-      </c>
-      <c r="H62" t="n">
         <v>110.319858</v>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr">
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Homestay+OMAH+REGENG/@-7.9169705,110.2477601,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7aff7f401005c1:0x4d961c012a3cbecf!5m2!4m1!1i2!8m2!3d-7.9169705!4d110.3198579!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWxvZGdl4AEA!16s%2Fg%2F11j90pj7_4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2998,25 +2932,24 @@
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>4</v>
+      </c>
       <c r="F63" t="n">
-        <v>4</v>
+        <v>-7.84293</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.84293</v>
-      </c>
-      <c r="H63" t="n">
         <v>110.285942</v>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Villa+Saluka/@-7.8429301,110.2138441,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9484e224891:0x21b7ea5befb1040d!5m2!4m1!1i2!8m2!3d-7.8429301!4d110.2859419!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11fnx2fwhn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J63" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Saluka/@-7.8429301,110.2138441,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9484e224891:0x21b7ea5befb1040d!5m2!4m1!1i2!8m2!3d-7.8429301!4d110.2859419!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11fnx2fwhn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
         <is>
           <t>9 bulan lalu di 
 Google</t>
@@ -3036,25 +2969,24 @@
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F64" t="n">
-        <v>4.6</v>
+        <v>-7.839279</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.839279</v>
-      </c>
-      <c r="H64" t="n">
         <v>110.30264</v>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr">
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/The+Srengenge+Villa/@-7.8429301,110.2138441,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af85f6a630f5d:0xa465591b212436c3!5m2!4m1!1i2!8m2!3d-7.8392792!4d110.3026395!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEWJlZF9hbmRfYnJlYWtmYXN04AEA!16s%2Fg%2F11bxglszb1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3077,25 +3009,24 @@
           <t>0813-2761-1919</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F65" t="n">
-        <v>4.3</v>
+        <v>-7.863918</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.863918</v>
-      </c>
-      <c r="H65" t="n">
         <v>110.349268</v>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr">
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Suwuk+Homestay/@-7.8639182,110.2771699,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a57bc3a6f6389:0x6e6658c2dcb5de33!5m2!4m1!1i2!8m2!3d-7.8639182!4d110.3492677!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11clytlqbt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3118,25 +3049,24 @@
           <t>0878-3962-5925</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F66" t="n">
-        <v>4.5</v>
+        <v>-7.840691</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.840691</v>
-      </c>
-      <c r="H66" t="n">
         <v>110.318463</v>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Villa+Bluesteps/@-7.8639182,110.2771699,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af88875f956a9:0xf83bf94991e32556!5m2!4m1!1i2!8m2!3d-7.8406907!4d110.3184634!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11by_hx6nj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J66" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Bluesteps/@-7.8639182,110.2771699,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af88875f956a9:0xf83bf94991e32556!5m2!4m1!1i2!8m2!3d-7.8406907!4d110.3184634!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11by_hx6nj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
         <is>
           <t>seminggu lalu di 
 Google</t>
@@ -3160,25 +3090,24 @@
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F67" t="n">
-        <v>4.5</v>
+        <v>-7.842857</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.842857</v>
-      </c>
-      <c r="H67" t="n">
         <v>110.315273</v>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr">
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Villa+Kamar+Tamu/@-7.8428567,110.2431756,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9104fe4bc57:0x548c0a3daae0b4cf!5m2!4m1!1i2!8m2!3d-7.8428567!4d110.3152734!15sChFQZW5naW5hcGFuIEJhbnR1bOABAA!16s%2Fg%2F11vk643mkt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3193,25 +3122,24 @@
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>5</v>
+      </c>
       <c r="F68" t="n">
-        <v>5</v>
+        <v>-7.860152</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.860152</v>
-      </c>
-      <c r="H68" t="n">
         <v>110.348205</v>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Villa+Kania/@-7.8428567,110.2431756,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a573f8b1e40df:0xc8fff0ff00d93c89!5m2!4m1!1i2!8m2!3d-7.8601522!4d110.3482052!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11rq1pych3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J68" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Kania/@-7.8428567,110.2431756,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a573f8b1e40df:0xc8fff0ff00d93c89!5m2!4m1!1i2!8m2!3d-7.8601522!4d110.3482052!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11rq1pych3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
         <is>
           <t>3 tahun lalu di 
 Google</t>
@@ -3235,25 +3163,24 @@
           <t>0877-3872-5976</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F69" t="n">
-        <v>4.7</v>
+        <v>-7.838804</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.838804</v>
-      </c>
-      <c r="H69" t="n">
         <v>110.31279</v>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr">
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Waiki+Homestay/@-7.8428567,110.2431756,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af96f5874ec83:0xe8accdff485573bc!5m2!4m1!1i2!8m2!3d-7.8388043!4d110.31279!15sChFQZW5naW5hcGFuIEJhbnR1bJIBC2d1ZXN0X2hvdXNl4AEA!16s%2Fg%2F11rv1sygfr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3272,25 +3199,24 @@
           <t>0856-4358-6416</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F70" t="n">
-        <v>4.8</v>
+        <v>-7.899897</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.899897</v>
-      </c>
-      <c r="H70" t="n">
         <v>110.380296</v>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr">
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Tedjo+Omah+Ndeso/@-7.8998975,110.3081986,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a55f17357fe67:0xd05ae5ba04c49ba8!5m2!4m1!1i2!8m2!3d-7.8998975!4d110.3802964!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWxvZGdl4AEA!16s%2Fg%2F11gjymrkvc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3313,25 +3239,24 @@
           <t>0811-2651-583</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>5</v>
+      </c>
       <c r="F71" t="n">
-        <v>5</v>
+        <v>-7.860225</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.860225</v>
-      </c>
-      <c r="H71" t="n">
         <v>110.3495</v>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Villa+Namastay+by+Suasana+Villa/@-7.8998975,110.3081986,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a57a714a49ed3:0xf9218683b6bd3468!5m2!4m1!1i2!8m2!3d-7.8602254!4d110.3495002!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11srp9fxg6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J71" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Namastay+by+Suasana+Villa/@-7.8998975,110.3081986,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a57a714a49ed3:0xf9218683b6bd3468!5m2!4m1!1i2!8m2!3d-7.8602254!4d110.3495002!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11srp9fxg6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
         <is>
           <t>3 minggu lalu di 
 Google</t>
@@ -3351,25 +3276,24 @@
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F72" t="n">
-        <v>4.3</v>
+        <v>-7.929185</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.929185</v>
-      </c>
-      <c r="H72" t="n">
         <v>110.349201</v>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Omahndeso+Waroeng+Kopi/@-7.8998975,110.3081986,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a55723d859215:0x82d035c2f57d0de0!5m2!4m1!1i2!8m2!3d-7.9291851!4d110.349201!15sChFQZW5naW5hcGFuIEJhbnR1bJIBC2NvZmZlZV9zaG9w4AEA!16s%2Fg%2F11g8cxm36r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J72" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Omahndeso+Waroeng+Kopi/@-7.8998975,110.3081986,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a55723d859215:0x82d035c2f57d0de0!5m2!4m1!1i2!8m2!3d-7.9291851!4d110.349201!15sChFQZW5naW5hcGFuIEJhbnR1bJIBC2NvZmZlZV9zaG9w4AEA!16s%2Fg%2F11g8cxm36r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
         <is>
           <t>8 bulan lalu di 
 Google</t>
@@ -3397,25 +3321,24 @@
           <t>0822-4234-2866</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>5</v>
+      </c>
       <c r="F73" t="n">
-        <v>5</v>
+        <v>-7.836069</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.836069</v>
-      </c>
-      <c r="H73" t="n">
         <v>110.306851</v>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr">
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Homestay+Griya+Bangunjiwo/@-7.8429431,110.2144511,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9ceb6e32b2f:0xa3f98130ecf9152e!5m2!4m1!1i2!8m2!3d-7.8360686!4d110.3068513!15sChFQZW5naW5hcGFuIEJhbnR1bJIBC2d1ZXN0X2hvdXNl4AEA!16s%2Fg%2F11sfsfb13r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3430,25 +3353,24 @@
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>5</v>
+      </c>
       <c r="F74" t="n">
-        <v>5</v>
+        <v>-7.925895</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.925895</v>
-      </c>
-      <c r="H74" t="n">
         <v>110.313519</v>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Farmer+House+Inn/@-7.9258952,110.2414212,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7aff885a39e4f1:0x8192e46355bbcdef!5m2!4m1!1i2!8m2!3d-7.9258952!4d110.313519!15sChFQZW5naW5hcGFuIEJhbnR1bJIBA2lubuABAA!16s%2Fg%2F11j7yx05hr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J74" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Farmer+House+Inn/@-7.9258952,110.2414212,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7aff885a39e4f1:0x8192e46355bbcdef!5m2!4m1!1i2!8m2!3d-7.9258952!4d110.313519!15sChFQZW5naW5hcGFuIEJhbnR1bJIBA2lubuABAA!16s%2Fg%2F11j7yx05hr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
         <is>
           <t>4 tahun lalu di 
 Google</t>
@@ -3472,25 +3394,24 @@
           <t>0815-6853-316</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>5</v>
+      </c>
       <c r="F75" t="n">
-        <v>5</v>
+        <v>-7.846351</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.846351</v>
-      </c>
-      <c r="H75" t="n">
         <v>110.392402</v>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Enny+Guest+House/@-7.8463506,110.3203039,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a57dfe6d03267:0xff897ac3c471e1fc!5m2!4m1!1i2!8m2!3d-7.8463506!4d110.3924017!15sChFQZW5naW5hcGFuIEJhbnR1bJIBC2d1ZXN0X2hvdXNl4AEA!16s%2Fg%2F11kjtpt67c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J75" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Enny+Guest+House/@-7.8463506,110.3203039,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a57dfe6d03267:0xff897ac3c471e1fc!5m2!4m1!1i2!8m2!3d-7.8463506!4d110.3924017!15sChFQZW5naW5hcGFuIEJhbnR1bJIBC2d1ZXN0X2hvdXNl4AEA!16s%2Fg%2F11kjtpt67c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
         <is>
           <t>seminggu lalu di 
 Google</t>
@@ -3514,25 +3435,24 @@
           <t>0822-2737-1096</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>4</v>
+      </c>
       <c r="F76" t="n">
-        <v>4</v>
+        <v>-7.920388</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.920388</v>
-      </c>
-      <c r="H76" t="n">
         <v>110.289641</v>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr">
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Wisma+Diyan+Indah/@-7.9203875,110.2175428,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7aff745d504961:0xc929ed56aa890cc5!5m2!4m1!1i2!8m2!3d-7.9203875!4d110.2896406!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWxvZGdl4AEA!16s%2Fg%2F11sgqhqxnb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3552,22 +3472,21 @@
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
+      <c r="F77" t="n">
+        <v>-7.923417</v>
+      </c>
       <c r="G77" t="n">
-        <v>-7.923417</v>
-      </c>
-      <c r="H77" t="n">
         <v>110.374629</v>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr">
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Gini+Homestay/@-7.9234175,110.3025311,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a55016dccf013:0xa24693780956beba!5m2!4m1!1i2!8m2!3d-7.9234175!4d110.3746289!15sChFQZW5naW5hcGFuIEJhbnR1bJIBC2d1ZXN0X2hvdXNl4AEA!16s%2Fg%2F11sct_zy9y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3586,25 +3505,24 @@
           <t>0813-3869-2651</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F78" t="n">
-        <v>4.8</v>
+        <v>-7.841107</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.841107</v>
-      </c>
-      <c r="H78" t="n">
         <v>110.320475</v>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Tropicana+Villa+%26+Sunkiss+Villa/@-7.8411073,110.2483768,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9e281252e2b:0x2c1cadfd1436884e!5m2!4m1!1i2!8m2!3d-7.8411073!4d110.3204746!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11j9jy45lz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J78" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Tropicana+Villa+%26+Sunkiss+Villa/@-7.8411073,110.2483768,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9e281252e2b:0x2c1cadfd1436884e!5m2!4m1!1i2!8m2!3d-7.8411073!4d110.3204746!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11j9jy45lz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
         <is>
           <t>6 bulan lalu di 
 Trip.com</t>
@@ -3628,25 +3546,24 @@
           <t>0813-3443-3007</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F79" t="n">
-        <v>4.9</v>
+        <v>-7.839897</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.839897</v>
-      </c>
-      <c r="H79" t="n">
         <v>110.325388</v>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr">
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Dream+Village/@-7.8411073,110.2483768,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9f696620e81:0x69a1e416f48d06aa!5m2!4m1!1i2!8m2!3d-7.8398966!4d110.3253879!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEGNvcnBvcmF0ZV9vZmZpY2XgAQA!16s%2Fg%2F11jg3gpw8w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3662,22 +3579,21 @@
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
+      <c r="F80" t="n">
+        <v>-7.932857</v>
+      </c>
       <c r="G80" t="n">
-        <v>-7.932857</v>
-      </c>
-      <c r="H80" t="n">
         <v>110.368361</v>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr">
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Dibyo+Homestay/@-7.932857,110.2962632,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a55ce86380bc1:0x4e861ddc2a2ef828!5m2!4m1!1i2!8m2!3d-7.932857!4d110.368361!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11rp3bd7xs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3700,25 +3616,24 @@
           <t>0821-3977-6624</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>5</v>
+      </c>
       <c r="F81" t="n">
-        <v>5</v>
+        <v>-7.940034</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.940034</v>
-      </c>
-      <c r="H81" t="n">
         <v>110.361266</v>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Simbok+Sireng+Homestay/@-7.932857,110.2962632,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a55b6ffb3a311:0xd95ac4c698481557!5m2!4m1!1i2!8m2!3d-7.9400343!4d110.3612659!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11h941y9w7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J81" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Simbok+Sireng+Homestay/@-7.932857,110.2962632,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a55b6ffb3a311:0xd95ac4c698481557!5m2!4m1!1i2!8m2!3d-7.9400343!4d110.3612659!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11h941y9w7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
         <is>
           <t>10 bulan lalu di 
 Google</t>
@@ -3747,22 +3662,21 @@
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
+      <c r="F82" t="n">
+        <v>-7.860162</v>
+      </c>
       <c r="G82" t="n">
-        <v>-7.860162</v>
-      </c>
-      <c r="H82" t="n">
         <v>110.293647</v>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr">
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Homestay+Miftah/@-7.8601623,110.2215492,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9ec3319a683:0x86cf7ead06c9e8e8!5m2!4m1!1i2!8m2!3d-7.8601623!4d110.293647!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11lg90tqwn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3781,21 +3695,20 @@
           <t>0812-2960-519</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="n">
+      <c r="E83" t="n">
         <v>4.3</v>
       </c>
+      <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr">
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/de%CC%85%CC%B2+Soewarna+Homestay/@-7.8368056,110.292835,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a57b2c80daebf:0x723a6a318470ecbf!5m2!4m1!1i2!8m2!3d-7.8368056!4d110.3649328!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11c5824xx8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3815,22 +3728,21 @@
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
+      <c r="F84" t="n">
+        <v>-7.864172</v>
+      </c>
       <c r="G84" t="n">
-        <v>-7.864172</v>
-      </c>
-      <c r="H84" t="n">
         <v>110.293735</v>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr">
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/DS+Homestay+Krebet/@-7.8641723,110.2216369,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af8dcdfb08083:0x1a8846fbab17c30c!5m2!4m1!1i2!8m2!3d-7.8641723!4d110.2937347!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11tjjgf9nw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3850,22 +3762,21 @@
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
+      <c r="F85" t="n">
+        <v>-7.862897</v>
+      </c>
       <c r="G85" t="n">
-        <v>-7.862897</v>
-      </c>
-      <c r="H85" t="n">
         <v>110.29453</v>
       </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr">
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Argosari+Homestay/@-7.8641723,110.2216369,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af8dd36df7d51:0xca63a138e1da907b!5m2!4m1!1i2!8m2!3d-7.8628975!4d110.2945303!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBmhvc3RlbOABAA!16s%2Fg%2F11p5_j65pj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3888,25 +3799,24 @@
           <t>0812-2971-4848</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr"/>
+      <c r="E86" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F86" t="n">
-        <v>4.7</v>
+        <v>-8.145787</v>
       </c>
       <c r="G86" t="n">
-        <v>-8.145787</v>
-      </c>
-      <c r="H86" t="n">
         <v>110.60744</v>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Penginapan+Sea+View+Sundak+Indraprastha/@-7.9952936,110.3706212,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbb8cb872bd0b:0x4f46a95e5331d71a!5m2!4m1!1i2!8m2!3d-8.1457875!4d110.6074397!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11fb0wcn5t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J86" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Penginapan+Sea+View+Sundak+Indraprastha/@-7.9952936,110.3706212,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbb8cb872bd0b:0x4f46a95e5331d71a!5m2!4m1!1i2!8m2!3d-8.1457875!4d110.6074397!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11fb0wcn5t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
         <is>
           <t>seminggu lalu di 
 Google</t>
@@ -3934,25 +3844,24 @@
           <t>0882-3924-0276</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr"/>
+      <c r="E87" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F87" t="n">
-        <v>4.7</v>
+        <v>-7.877518</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.877518</v>
-      </c>
-      <c r="H87" t="n">
         <v>110.45515</v>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Penginapan+Rudi/@-7.8775176,110.1667593,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a5300ca97573b:0x5703ade2415e09c8!5m2!4m1!1i2!8m2!3d-7.8775176!4d110.4551504!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11jj3tw804?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J87" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Penginapan+Rudi/@-7.8775176,110.1667593,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a5300ca97573b:0x5703ade2415e09c8!5m2!4m1!1i2!8m2!3d-7.8775176!4d110.4551504!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11jj3tw804?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
         <is>
           <t>seminggu lalu di 
 Google</t>
@@ -3980,25 +3889,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr"/>
+      <c r="E88" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F88" t="n">
-        <v>4.4</v>
+        <v>-7.969109</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.969109</v>
-      </c>
-      <c r="H88" t="n">
         <v>110.604537</v>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kenewae+Living+Near+Alun-alun+Wonosari+Mitra+RedDoorz/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb3d43759130f:0x4ccae0c7fa4aa90d!5m2!4m1!1i2!8m2!3d-7.9691094!4d110.6045372!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11vhbyv65v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J88" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kenewae+Living+Near+Alun-alun+Wonosari+Mitra+RedDoorz/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb3d43759130f:0x4ccae0c7fa4aa90d!5m2!4m1!1i2!8m2!3d-7.9691094!4d110.6045372!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11vhbyv65v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
         <is>
           <t>3 minggu lalu di 
 Google</t>
@@ -4026,25 +3934,24 @@
           <t>0823-2467-7762</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F89" t="n">
-        <v>4.3</v>
+        <v>-8.148939</v>
       </c>
       <c r="G89" t="n">
-        <v>-8.148939</v>
-      </c>
-      <c r="H89" t="n">
         <v>110.61572</v>
       </c>
-      <c r="I89" t="b">
-        <v>0</v>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Penginapan+Putra+Darma/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba29f151669b:0x33417b7d769cd479!5m2!4m1!1i2!8m2!3d-8.1489394!4d110.6157204!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11c0vm87qy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J89" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Penginapan+Putra+Darma/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba29f151669b:0x33417b7d769cd479!5m2!4m1!1i2!8m2!3d-8.1489394!4d110.6157204!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11c0vm87qy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
         <is>
           <t>5 hari lalu di 
 Google</t>
@@ -4072,25 +3979,24 @@
           <t>(021) 29707601</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="n">
+        <v>4</v>
+      </c>
       <c r="F90" t="n">
-        <v>4</v>
+        <v>-8.048189000000001</v>
       </c>
       <c r="G90" t="n">
-        <v>-8.048189000000001</v>
-      </c>
-      <c r="H90" t="n">
         <v>110.584603</v>
       </c>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr">
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Orchid+Inn+Hotel/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb16c2ee6876f:0x4827679755f74f12!5m2!4m1!1i2!8m2!3d-8.0481889!4d110.5846026!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11bx9x8f2w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4113,25 +4019,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr"/>
+      <c r="E91" t="n">
+        <v>2.7</v>
+      </c>
       <c r="F91" t="n">
-        <v>2.7</v>
+        <v>-7.960152</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.960152</v>
-      </c>
-      <c r="H91" t="n">
         <v>110.603253</v>
       </c>
-      <c r="I91" t="b">
-        <v>0</v>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Wisma+Handayani+Syariah/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb32241f408cb:0x2bbacf92b0323ab5!5m2!4m1!1i2!8m2!3d-7.9601523!4d110.6032528!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11s8y1rgr5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J91" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Wisma+Handayani+Syariah/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb32241f408cb:0x2bbacf92b0323ab5!5m2!4m1!1i2!8m2!3d-7.9601523!4d110.6032528!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11s8y1rgr5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
         <is>
           <t>seminggu lalu di 
 Google</t>
@@ -4155,25 +4060,24 @@
           <t>0812-3948-3314</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr"/>
+      <c r="E92" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F92" t="n">
-        <v>4.9</v>
+        <v>-7.938662</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.938662</v>
-      </c>
-      <c r="H92" t="n">
         <v>110.575609</v>
       </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr">
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/D'Ninetysix+Inn+Hotel+Gunungkidul/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a4d68cc807957:0xb6ecd7a62c7d9477!5m2!4m1!1i2!8m2!3d-7.9386619!4d110.5756093!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11vk7hq5pw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4188,25 +4092,24 @@
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
+      <c r="E93" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F93" t="n">
-        <v>4.2</v>
+        <v>-8.130756999999999</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.130756999999999</v>
-      </c>
-      <c r="H93" t="n">
         <v>110.555348</v>
       </c>
-      <c r="I93" t="b">
-        <v>0</v>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Hotel+Kukup+Indah/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba919704890f:0x24a5756b854b6de7!5m2!4m1!1i2!8m2!3d-8.1307571!4d110.5553475!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11byts_cmf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J93" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Hotel+Kukup+Indah/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba919704890f:0x24a5756b854b6de7!5m2!4m1!1i2!8m2!3d-8.1307571!4d110.5553475!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11byts_cmf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
         <is>
           <t>5 jam lalu di 
 Google</t>
@@ -4234,25 +4137,24 @@
           <t>0821-3806-2008</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr"/>
+      <c r="E94" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F94" t="n">
-        <v>4.3</v>
+        <v>-8.150012</v>
       </c>
       <c r="G94" t="n">
-        <v>-8.150012</v>
-      </c>
-      <c r="H94" t="n">
         <v>110.614156</v>
       </c>
-      <c r="I94" t="b">
-        <v>0</v>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Penginapan+GRIYAwatukelir/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba2a327a9cbd:0xfad09cc601945d8e!5m2!4m1!1i2!8m2!3d-8.150012!4d110.6141558!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11hbgrsxpp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J94" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Penginapan+GRIYAwatukelir/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba2a327a9cbd:0xfad09cc601945d8e!5m2!4m1!1i2!8m2!3d-8.150012!4d110.6141558!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11hbgrsxpp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
         <is>
           <t>6 bulan lalu di 
 Google</t>
@@ -4280,25 +4182,24 @@
           <t>0819-1420-2299</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr"/>
+      <c r="E95" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F95" t="n">
-        <v>4.2</v>
+        <v>-7.968984</v>
       </c>
       <c r="G95" t="n">
-        <v>-7.968984</v>
-      </c>
-      <c r="H95" t="n">
         <v>110.598641</v>
       </c>
-      <c r="I95" t="b">
-        <v>0</v>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Omah+NgGunung/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb341f9fa2c2b:0x285b20837658484b!5m2!4m1!1i2!8m2!3d-7.968984!4d110.5986406!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFbG9kZ2XgAQA!16s%2Fg%2F11cfdzwqb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J95" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Omah+NgGunung/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb341f9fa2c2b:0x285b20837658484b!5m2!4m1!1i2!8m2!3d-7.968984!4d110.5986406!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFbG9kZ2XgAQA!16s%2Fg%2F11cfdzwqb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
         <is>
           <t>2 minggu lalu di 
 Google</t>
@@ -4322,25 +4223,24 @@
           <t>(021) 29706666</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F96" t="n">
-        <v>3.9</v>
+        <v>-8.144833</v>
       </c>
       <c r="G96" t="n">
-        <v>-8.144833</v>
-      </c>
-      <c r="H96" t="n">
         <v>110.598708</v>
       </c>
-      <c r="I96" t="b">
-        <v>0</v>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Penginapan+Mayasari/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba39fec97cdb:0xc1c6546c71322aa2!5m2!4m1!1i2!8m2!3d-8.1448332!4d110.5987082!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11ddyjf2pn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J96" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Penginapan+Mayasari/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba39fec97cdb:0xc1c6546c71322aa2!5m2!4m1!1i2!8m2!3d-8.1448332!4d110.5987082!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11ddyjf2pn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
         <is>
           <t>4 bulan lalu di 
 Google</t>
@@ -4368,25 +4268,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr"/>
+      <c r="E97" t="n">
+        <v>3.3</v>
+      </c>
       <c r="F97" t="n">
-        <v>3.3</v>
+        <v>-7.972163</v>
       </c>
       <c r="G97" t="n">
-        <v>-7.972163</v>
-      </c>
-      <c r="H97" t="n">
         <v>110.602285</v>
       </c>
-      <c r="I97" t="b">
-        <v>0</v>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/RedDoorz+Syariah+near+Alun+Alun+Wonosari/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb310588bcbef:0x942e9b91aa2047db!5m2!4m1!1i2!8m2!3d-7.9721627!4d110.6022846!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11vl2sl8jm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J97" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/RedDoorz+Syariah+near+Alun+Alun+Wonosari/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb310588bcbef:0x942e9b91aa2047db!5m2!4m1!1i2!8m2!3d-7.9721627!4d110.6022846!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11vl2sl8jm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
         <is>
           <t>sebulan lalu di 
 Google</t>
@@ -4411,22 +4310,21 @@
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
+      <c r="F98" t="n">
+        <v>-7.967266</v>
+      </c>
       <c r="G98" t="n">
-        <v>-7.967266</v>
-      </c>
-      <c r="H98" t="n">
         <v>110.603992</v>
       </c>
-      <c r="I98" t="b">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr">
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Omah+Artho+Moro/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb342da7dd3a1:0xff35fe2784294f4a!5m2!4m1!1i2!8m2!3d-7.9672658!4d110.6039922!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11fylpwh_p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4445,25 +4343,24 @@
           <t>0821-3813-7696</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr"/>
+      <c r="E99" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F99" t="n">
-        <v>4.5</v>
+        <v>-7.956383</v>
       </c>
       <c r="G99" t="n">
-        <v>-7.956383</v>
-      </c>
-      <c r="H99" t="n">
         <v>110.591889</v>
       </c>
-      <c r="I99" t="b">
-        <v>0</v>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dea+Lokha+HOTEL/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb3db3355f303:0xd82c70d83166eed4!5m2!4m1!1i2!8m2!3d-7.9563827!4d110.5918885!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11fpq6jvvl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J99" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dea+Lokha+HOTEL/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb3db3355f303:0xd82c70d83166eed4!5m2!4m1!1i2!8m2!3d-7.9563827!4d110.5918885!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11fpq6jvvl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
         <is>
           <t>5 hari lalu di 
 Google</t>
@@ -4491,25 +4388,24 @@
           <t>0821-3563-3400</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr"/>
+      <c r="E100" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F100" t="n">
-        <v>4.3</v>
+        <v>-7.840641</v>
       </c>
       <c r="G100" t="n">
-        <v>-7.840641</v>
-      </c>
-      <c r="H100" t="n">
         <v>110.493138</v>
       </c>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr">
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kopilimo/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a51b75d79a43f:0x5c0269035442d303!5m2!4m1!1i2!8m2!3d-7.8406406!4d110.4931382!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11bzt72jfq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4532,25 +4428,24 @@
           <t>0822-2604-0562</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr"/>
+      <c r="E101" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F101" t="n">
-        <v>4.4</v>
+        <v>-8.146508000000001</v>
       </c>
       <c r="G101" t="n">
-        <v>-8.146508000000001</v>
-      </c>
-      <c r="H101" t="n">
         <v>110.606874</v>
       </c>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr">
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Omah+Sundak/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba2fba73ff5f:0x19120f18016cc74e!5m2!4m1!1i2!8m2!3d-8.1465081!4d110.6068736!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11b808s9lr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4569,25 +4464,24 @@
           <t>(0274) 391152</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr"/>
+      <c r="E102" t="n">
+        <v>4</v>
+      </c>
       <c r="F102" t="n">
-        <v>4</v>
+        <v>-7.963848</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.963848</v>
-      </c>
-      <c r="H102" t="n">
         <v>110.598419</v>
       </c>
-      <c r="I102" t="b">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr">
+      <c r="H102" t="b">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Calida+Hotel+RedPartner+near+Alun+Alun+Wonosari/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb346afd03c77:0xbf49aca77bfcc850!5m2!4m1!1i2!8m2!3d-7.9638477!4d110.5984187!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11bwhbl8vg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4610,21 +4504,20 @@
           <t>0813-2525-3300</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="n">
+      <c r="E103" t="n">
         <v>4.5</v>
       </c>
+      <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="b">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr">
+      <c r="H103" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/The+Royal+Joglo/@-7.9691094,110.3161461,11z/data=!4m16!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m11!1s0x2e7bba39f0b26dc7:0x76377fc6a5959959!5m2!4m1!1i2!8m2!3d-8.14432!4d110.598625!9m1!1b1!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11hbbl8ncl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4647,25 +4540,24 @@
           <t>0858-7007-9452</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr"/>
+      <c r="E104" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F104" t="n">
-        <v>3.9</v>
+        <v>-8.131833</v>
       </c>
       <c r="G104" t="n">
-        <v>-8.131833</v>
-      </c>
-      <c r="H104" t="n">
         <v>110.555934</v>
       </c>
-      <c r="I104" t="b">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr">
+      <c r="H104" t="b">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Penginapan+Joko+Samudro/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba91937159df:0x65dadce08dd5d70a!5m2!4m1!1i2!8m2!3d-8.1318328!4d110.5559339!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11fqv490nw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4684,25 +4576,24 @@
           <t>(0274) 392030</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr"/>
+      <c r="E105" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F105" t="n">
-        <v>4.2</v>
+        <v>-7.975842</v>
       </c>
       <c r="G105" t="n">
-        <v>-7.975842</v>
-      </c>
-      <c r="H105" t="n">
         <v>110.598902</v>
       </c>
-      <c r="I105" t="b">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr">
+      <c r="H105" t="b">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Hotel+Cyka+Raya/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb36c1e472de1:0xda65348bc076439d!5m2!4m1!1i2!8m2!3d-7.9758425!4d110.5989016!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11bxfs7pn5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4725,25 +4616,24 @@
           <t>0815-2552-848</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr"/>
+      <c r="E106" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F106" t="n">
-        <v>4.6</v>
+        <v>-8.132206</v>
       </c>
       <c r="G106" t="n">
-        <v>-8.132206</v>
-      </c>
-      <c r="H106" t="n">
         <v>110.589083</v>
       </c>
-      <c r="I106" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr">
+      <c r="H106" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Drini+Hills/@-7.9691094,110.3161461,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbb2074f562c9:0x62950ce1b6fdbaaf!5m2!4m1!1i2!8m2!3d-8.1322065!4d110.589083!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEMcmVzb3J0X2hvdGVs4AEA!16s%2Fg%2F11ngyp7qw5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4758,25 +4648,24 @@
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
+      <c r="E107" t="n">
+        <v>5</v>
+      </c>
       <c r="F107" t="n">
-        <v>5</v>
+        <v>-8.025383</v>
       </c>
       <c r="G107" t="n">
-        <v>-8.025383</v>
-      </c>
-      <c r="H107" t="n">
         <v>110.334856</v>
       </c>
-      <c r="I107" t="b">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr">
+      <c r="H107" t="b">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Penginapan+Yudhistira/@-8.025383,110.046465,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bab4b674ce6ff:0xab10fd4354afff32!5m2!4m1!1i2!8m2!3d-8.025383!4d110.3348561!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgERYmVkX2FuZF9icmVha2Zhc3TgAQA!16s%2Fg%2F11t77nrwpp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4799,25 +4688,24 @@
           <t>(021) 29707601</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr"/>
+      <c r="E108" t="n">
+        <v>2.8</v>
+      </c>
       <c r="F108" t="n">
-        <v>2.8</v>
+        <v>-7.926437</v>
       </c>
       <c r="G108" t="n">
-        <v>-7.926437</v>
-      </c>
-      <c r="H108" t="n">
         <v>110.646063</v>
       </c>
-      <c r="I108" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr">
+      <c r="H108" t="b">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Homestay+Arva+komplek+pindul(Nyamplung)/@-7.9758425,110.3105105,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a4b3e0f8e4a03:0x894d333a36c6c2e1!5m2!4m1!1i2!8m2!3d-7.9264375!4d110.6460625!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11c60mt_s3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4832,25 +4720,24 @@
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr"/>
+      <c r="E109" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F109" t="n">
-        <v>4.8</v>
+        <v>-8.106116999999999</v>
       </c>
       <c r="G109" t="n">
-        <v>-8.106116999999999</v>
-      </c>
-      <c r="H109" t="n">
         <v>110.463357</v>
       </c>
-      <c r="I109" t="b">
-        <v>0</v>
+      <c r="H109" t="b">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Taman+Watu+Resort+Gunung+Kidul/@-8.1061166,110.1749662,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7baf42b5a2bce7:0x30204f7140e89bb3!5m2!4m1!1i2!8m2!3d-8.1061166!4d110.4633573!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11k4jx9wnz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J109" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Taman+Watu+Resort+Gunung+Kidul/@-8.1061166,110.1749662,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7baf42b5a2bce7:0x30204f7140e89bb3!5m2!4m1!1i2!8m2!3d-8.1061166!4d110.4633573!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11k4jx9wnz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
         <is>
           <t>1 hari lalu di 
 Google</t>
@@ -4878,25 +4765,24 @@
           <t>0817-311-013</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr"/>
+      <c r="E110" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F110" t="n">
-        <v>4.4</v>
+        <v>-8.143696</v>
       </c>
       <c r="G110" t="n">
-        <v>-8.143696</v>
-      </c>
-      <c r="H110" t="n">
         <v>110.607378</v>
       </c>
-      <c r="I110" t="b">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr">
+      <c r="H110" t="b">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Casa+Coco+Resort+Gunungkidul/@-8.1436963,110.3189871,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbb3bfdf5e367:0xba6c8a363f8f9b47!5m2!4m1!1i2!8m2!3d-8.1436963!4d110.6073782!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11vpfnt0mr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4919,25 +4805,24 @@
           <t>(0274) 2902000</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr"/>
+      <c r="E111" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F111" t="n">
-        <v>4.7</v>
+        <v>-7.938653</v>
       </c>
       <c r="G111" t="n">
-        <v>-7.938653</v>
-      </c>
-      <c r="H111" t="n">
         <v>110.575967</v>
       </c>
-      <c r="I111" t="b">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr">
+      <c r="H111" t="b">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Hotel+Santika+Gunungkidul+-+Jogja/@-8.1436963,110.3189871,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a4dc9f4abf9cf:0x1552c34b694723d5!5m2!4m1!1i2!8m2!3d-7.9386526!4d110.575967!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11sgxjz0sn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4956,25 +4841,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr"/>
+      <c r="E112" t="n">
+        <v>4</v>
+      </c>
       <c r="F112" t="n">
-        <v>4</v>
+        <v>-8.130618</v>
       </c>
       <c r="G112" t="n">
-        <v>-8.130618</v>
-      </c>
-      <c r="H112" t="n">
         <v>110.549217</v>
       </c>
-      <c r="I112" t="b">
-        <v>0</v>
+      <c r="H112" t="b">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Baron+beach+bungalow/@-8.1436963,110.3189871,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbbb19b54aad7:0xddc065efb43f22d!5m2!4m1!1i2!8m2!3d-8.1306185!4d110.5492174!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFdmlsbGHgAQA!16s%2Fg%2F11pwyv4d5l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J112" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Baron+beach+bungalow/@-8.1436963,110.3189871,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbbb19b54aad7:0xddc065efb43f22d!5m2!4m1!1i2!8m2!3d-8.1306185!4d110.5492174!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFdmlsbGHgAQA!16s%2Fg%2F11pwyv4d5l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
         <is>
           <t>4 hari lalu di 
 Google</t>
@@ -5002,25 +4886,24 @@
           <t>0819-1549-6777</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr"/>
+      <c r="E113" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F113" t="n">
-        <v>4.3</v>
+        <v>-7.964873</v>
       </c>
       <c r="G113" t="n">
-        <v>-7.964873</v>
-      </c>
-      <c r="H113" t="n">
         <v>110.608989</v>
       </c>
-      <c r="I113" t="b">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr">
+      <c r="H113" t="b">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Griya+Limasan+Hotel/@-8.1436963,110.3189871,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb35c696c1b6f:0x4dc04ff3f9990263!5m2!4m1!1i2!8m2!3d-7.9648727!4d110.6089885!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11c38dkq7m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5043,25 +4926,24 @@
           <t>0822-2781-6831</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr"/>
+      <c r="E114" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F114" t="n">
-        <v>4.4</v>
+        <v>-7.967907</v>
       </c>
       <c r="G114" t="n">
-        <v>-7.967907</v>
-      </c>
-      <c r="H114" t="n">
         <v>110.592399</v>
       </c>
-      <c r="I114" t="b">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr">
+      <c r="H114" t="b">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Alzara+Hotel/@-8.1436963,110.3189871,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb33f8537c19b:0xc2a91e4b9a049c41!5m2!4m1!1i2!8m2!3d-7.9679073!4d110.5923987!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11bvt40dbm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5084,25 +4966,24 @@
           <t>(021) 29707601</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr"/>
+      <c r="E115" t="n">
+        <v>3</v>
+      </c>
       <c r="F115" t="n">
-        <v>3</v>
+        <v>-7.857377</v>
       </c>
       <c r="G115" t="n">
-        <v>-7.857377</v>
-      </c>
-      <c r="H115" t="n">
         <v>110.79334</v>
       </c>
-      <c r="I115" t="b">
-        <v>0</v>
+      <c r="H115" t="b">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/OYO+Homes+91154+Desa+Wisata+Wayang+Manyaran+Wonogiri/@-7.8573768,110.504949,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a35edf1b263a1:0x6146c1ff6fe4edce!5m2!4m1!1i2!8m2!3d-7.8573768!4d110.7933401!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11s2hwn7vg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J115" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/OYO+Homes+91154+Desa+Wisata+Wayang+Manyaran+Wonogiri/@-7.8573768,110.504949,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a35edf1b263a1:0x6146c1ff6fe4edce!5m2!4m1!1i2!8m2!3d-7.8573768!4d110.7933401!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11s2hwn7vg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
         <is>
           <t>setahun lalu di 
 Google</t>
@@ -5126,25 +5007,24 @@
           <t>0878-3974-5149</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F116" t="n">
-        <v>3.8</v>
+        <v>-8.136813</v>
       </c>
       <c r="G116" t="n">
-        <v>-8.136813</v>
-      </c>
-      <c r="H116" t="n">
         <v>110.575056</v>
       </c>
-      <c r="I116" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr">
+      <c r="H116" t="b">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Villa+Watu+Kodok/@-8.1368127,110.2866644,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbbd62c537db1:0x95c550edd26f7ac!5m2!4m1!1i2!8m2!3d-8.1368127!4d110.5750555!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFbG9kZ2XgAQA!16s%2Fg%2F11g_qrv5d2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5163,25 +5043,24 @@
           <t>0812-2588-8257</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F117" t="n">
-        <v>4.2</v>
+        <v>-8.131924</v>
       </c>
       <c r="G117" t="n">
-        <v>-8.131924</v>
-      </c>
-      <c r="H117" t="n">
         <v>110.5513</v>
       </c>
-      <c r="I117" t="b">
-        <v>0</v>
+      <c r="H117" t="b">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Ama+Awa+Resort/@-8.1368127,110.2866644,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbbf56df3b87f:0x1c6b1325d2466ca5!5m2!4m1!1i2!8m2!3d-8.1319238!4d110.5513004!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11khf7frw_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J117" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Ama+Awa+Resort/@-8.1368127,110.2866644,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbbf56df3b87f:0x1c6b1325d2466ca5!5m2!4m1!1i2!8m2!3d-8.1319238!4d110.5513004!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11khf7frw_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
         <is>
           <t>3 hari lalu di 
 Google</t>
@@ -5205,25 +5084,24 @@
           <t>0878-7855-5266</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr"/>
+      <c r="E118" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F118" t="n">
-        <v>4.6</v>
+        <v>-7.994272</v>
       </c>
       <c r="G118" t="n">
-        <v>-7.994272</v>
-      </c>
-      <c r="H118" t="n">
         <v>110.592087</v>
       </c>
-      <c r="I118" t="b">
-        <v>0</v>
+      <c r="H118" t="b">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/The+Mulyo+-+Homestay/@-8.1368127,110.2866644,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb3a1c2de940f:0x1ad3c70c601bde3c!5m2!4m1!1i2!8m2!3d-7.9942725!4d110.5920867!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11d_7792bb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J118" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/The+Mulyo+-+Homestay/@-8.1368127,110.2866644,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb3a1c2de940f:0x1ad3c70c601bde3c!5m2!4m1!1i2!8m2!3d-7.9942725!4d110.5920867!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11d_7792bb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
         <is>
           <t>seminggu lalu di 
 Google</t>
@@ -5251,25 +5129,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr"/>
+      <c r="E119" t="n">
+        <v>3.2</v>
+      </c>
       <c r="F119" t="n">
-        <v>3.2</v>
+        <v>-8.019958000000001</v>
       </c>
       <c r="G119" t="n">
-        <v>-8.019958000000001</v>
-      </c>
-      <c r="H119" t="n">
         <v>110.327064</v>
       </c>
-      <c r="I119" t="b">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr">
+      <c r="H119" t="b">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/RedDoorz+@+Paris+Ocean/@-8.0199579,110.0386729,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7b009e9cb5c843:0x5f671096ce6470ef!5m2!4m1!1i2!8m2!3d-8.0199579!4d110.327064!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11fp1t8gqy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5292,25 +5169,24 @@
           <t>0819-3676-4756</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr"/>
+      <c r="E120" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F120" t="n">
-        <v>4.6</v>
+        <v>-8.021732</v>
       </c>
       <c r="G120" t="n">
-        <v>-8.021732</v>
-      </c>
-      <c r="H120" t="n">
         <v>110.348206</v>
       </c>
-      <c r="I120" t="b">
-        <v>0</v>
+      <c r="H120" t="b">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Watu+Paris+Jogja/@-8.0199579,110.0386729,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7babf87252411b:0xfbf141785031c0d3!5m2!4m1!1i2!8m2!3d-8.0217323!4d110.3482055!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEMcmVzb3J0X2hvdGVs4AEA!16s%2Fg%2F11sqpg3kbw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J120" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Watu+Paris+Jogja/@-8.0199579,110.0386729,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7babf87252411b:0xfbf141785031c0d3!5m2!4m1!1i2!8m2!3d-8.0217323!4d110.3482055!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEMcmVzb3J0X2hvdGVs4AEA!16s%2Fg%2F11sqpg3kbw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
         <is>
           <t>1 hari lalu di 
 Google</t>
@@ -5338,25 +5214,24 @@
           <t>0811-3891-888</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr"/>
+      <c r="E121" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F121" t="n">
-        <v>4.6</v>
+        <v>-8.130908</v>
       </c>
       <c r="G121" t="n">
-        <v>-8.130908</v>
-      </c>
-      <c r="H121" t="n">
         <v>110.548736</v>
       </c>
-      <c r="I121" t="b">
-        <v>0</v>
+      <c r="H121" t="b">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Baron+Lighthouse+Cottage+%26+Eatery/@-8.1309079,110.2603451,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbb8932024059:0xc0c6af069d8dcab4!5m2!4m1!1i2!8m2!3d-8.1309079!4d110.5487362!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEPY290dGFnZV92aWxsYWdl4AEA!16s%2Fg%2F11rhsw03_d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J121" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Baron+Lighthouse+Cottage+%26+Eatery/@-8.1309079,110.2603451,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbb8932024059:0xc0c6af069d8dcab4!5m2!4m1!1i2!8m2!3d-8.1309079!4d110.5487362!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEPY290dGFnZV92aWxsYWdl4AEA!16s%2Fg%2F11rhsw03_d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
         <is>
           <t>5 hari lalu di 
 Google</t>
@@ -5380,25 +5255,24 @@
           <t>(021) 29707600</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr"/>
+      <c r="E122" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F122" t="n">
-        <v>4.4</v>
+        <v>-7.968816</v>
       </c>
       <c r="G122" t="n">
-        <v>-7.968816</v>
-      </c>
-      <c r="H122" t="n">
         <v>110.600306</v>
       </c>
-      <c r="I122" t="b">
-        <v>0</v>
+      <c r="H122" t="b">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/BeGe+HOMESTAY/@-8.1309079,110.2603451,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb341630461a7:0x17968dc42adc1ab2!5m2!4m1!1i2!8m2!3d-7.9688165!4d110.6003059!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11cjj16xkw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J122" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/BeGe+HOMESTAY/@-8.1309079,110.2603451,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb341630461a7:0x17968dc42adc1ab2!5m2!4m1!1i2!8m2!3d-7.9688165!4d110.6003059!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11cjj16xkw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
         <is>
           <t>2 minggu lalu di 
 Google</t>
@@ -5426,25 +5300,24 @@
           <t>0851-0660-0669</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr"/>
+      <c r="E123" t="n">
+        <v>5</v>
+      </c>
       <c r="F123" t="n">
-        <v>5</v>
+        <v>-7.956772</v>
       </c>
       <c r="G123" t="n">
-        <v>-7.956772</v>
-      </c>
-      <c r="H123" t="n">
         <v>110.621156</v>
       </c>
-      <c r="I123" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr">
+      <c r="H123" t="b">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/WISMA+HN/@-8.1309079,110.2603451,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb5eb956dbb03:0x3938c1a36c3d272a!5m2!4m1!1i2!8m2!3d-7.9567721!4d110.6211557!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11wqvcbpvx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5463,25 +5336,24 @@
           <t>0852-2852-7177</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr"/>
+      <c r="E124" t="n">
+        <v>2.6</v>
+      </c>
       <c r="F124" t="n">
-        <v>2.6</v>
+        <v>-8.188058</v>
       </c>
       <c r="G124" t="n">
-        <v>-8.188058</v>
-      </c>
-      <c r="H124" t="n">
         <v>110.711916</v>
       </c>
-      <c r="I124" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr">
+      <c r="H124" t="b">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Penginapan+Griya+Salaman+Wediombo/@-8.1880578,110.4235247,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb9e80bbb2a05:0xc24732d51901343d!5m2!4m1!1i2!8m2!3d-8.1880578!4d110.7119158!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11gmyqfp0_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5504,25 +5376,24 @@
           <t>0813-2807-7444</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr"/>
+      <c r="E125" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F125" t="n">
-        <v>4.4</v>
+        <v>-7.926142</v>
       </c>
       <c r="G125" t="n">
-        <v>-7.926142</v>
-      </c>
-      <c r="H125" t="n">
         <v>110.646414</v>
       </c>
-      <c r="I125" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr">
+      <c r="H125" t="b">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/The+New+Orlinds+Guest+House/@-7.9261418,110.358023,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a4b3e010624a1:0x50e24c89f6ed526e!5m2!4m1!1i2!8m2!3d-7.9261418!4d110.6464141!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFbG9kZ2XgAQA!16s%2Fg%2F11bw3x2n4l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5545,25 +5416,24 @@
           <t>(021) 29707601</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr"/>
+      <c r="E126" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F126" t="n">
-        <v>4.8</v>
+        <v>-7.870303</v>
       </c>
       <c r="G126" t="n">
-        <v>-7.870303</v>
-      </c>
-      <c r="H126" t="n">
         <v>110.460772</v>
       </c>
-      <c r="I126" t="b">
-        <v>0</v>
+      <c r="H126" t="b">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/VIKI+%5BVilla+KLENGKONG+INDAH%5D/@-7.8703035,110.1723804,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a5143d7f9f761:0xae542cce939b86f0!5m2!4m1!1i2!8m2!3d-7.8703035!4d110.4607715!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11rqckkjkc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J126" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/VIKI+%5BVilla+KLENGKONG+INDAH%5D/@-7.8703035,110.1723804,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a5143d7f9f761:0xae542cce939b86f0!5m2!4m1!1i2!8m2!3d-7.8703035!4d110.4607715!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11rqckkjkc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
         <is>
           <t>sebulan lalu di 
 Google</t>
@@ -5591,25 +5461,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr"/>
+      <c r="E127" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F127" t="n">
-        <v>3.7</v>
+        <v>-8.020080999999999</v>
       </c>
       <c r="G127" t="n">
-        <v>-8.020080999999999</v>
-      </c>
-      <c r="H127" t="n">
         <v>110.332499</v>
       </c>
-      <c r="I127" t="b">
-        <v>0</v>
+      <c r="H127" t="b">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/RedDoorz+near+Parangtritis+Beach/@-7.8703035,110.1723804,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7babc712682b43:0x269fd3bc993ab59b!5m2!4m1!1i2!8m2!3d-8.0200814!4d110.3324993!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgELZ3Vlc3RfaG91c2XgAQA!16s%2Fg%2F11fn6mhr55?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J127" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/RedDoorz+near+Parangtritis+Beach/@-7.8703035,110.1723804,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7babc712682b43:0x269fd3bc993ab59b!5m2!4m1!1i2!8m2!3d-8.0200814!4d110.3324993!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgELZ3Vlc3RfaG91c2XgAQA!16s%2Fg%2F11fn6mhr55?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr">
         <is>
           <t>5 hari lalu di 
 Google</t>
@@ -5629,25 +5498,24 @@
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr"/>
+      <c r="E128" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F128" t="n">
-        <v>4.5</v>
+        <v>-8.14554</v>
       </c>
       <c r="G128" t="n">
-        <v>-8.14554</v>
-      </c>
-      <c r="H128" t="n">
         <v>110.609929</v>
       </c>
-      <c r="I128" t="b">
-        <v>0</v>
+      <c r="H128" t="b">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rock+Garden+Homestay+%26+Resto/@-8.1455405,110.321538,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba2f40ff262b:0x72ac37488dcda428!5m2!4m1!1i2!8m2!3d-8.1455405!4d110.6099291!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F1q62d1x2m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J128" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Rock+Garden+Homestay+%26+Resto/@-8.1455405,110.321538,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba2f40ff262b:0x72ac37488dcda428!5m2!4m1!1i2!8m2!3d-8.1455405!4d110.6099291!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F1q62d1x2m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
         <is>
           <t>4 hari lalu di 
 Google</t>
@@ -5671,25 +5539,24 @@
           <t>0878-3942-7171</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr"/>
+      <c r="E129" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F129" t="n">
-        <v>4.4</v>
+        <v>-7.885677</v>
       </c>
       <c r="G129" t="n">
-        <v>-7.885677</v>
-      </c>
-      <c r="H129" t="n">
         <v>110.512102</v>
       </c>
-      <c r="I129" t="b">
-        <v>0</v>
+      <c r="H129" t="b">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Wulenpari/@-7.8856773,110.2237108,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a531cc6d4a3b1:0xb92f34dfdc406846!5m2!4m1!1i2!8m2!3d-7.8856773!4d110.5121019!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11gh4mcfys?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J129" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Wulenpari/@-7.8856773,110.2237108,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a531cc6d4a3b1:0xb92f34dfdc406846!5m2!4m1!1i2!8m2!3d-7.8856773!4d110.5121019!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11gh4mcfys?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
         <is>
           <t>2 minggu lalu di 
 Google</t>
@@ -5713,25 +5580,24 @@
           <t>0821-3563-3400</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr"/>
+      <c r="E130" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F130" t="n">
-        <v>4.5</v>
+        <v>-7.83956</v>
       </c>
       <c r="G130" t="n">
-        <v>-7.83956</v>
-      </c>
-      <c r="H130" t="n">
         <v>110.520199</v>
       </c>
-      <c r="I130" t="b">
-        <v>0</v>
+      <c r="H130" t="b">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Villa+Gunung+Purba+View/@-7.8856773,110.2237108,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a5175867d4143:0x95cbe3c0886403b6!5m2!4m1!1i2!8m2!3d-7.83956!4d110.5201994!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11llkbclwx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J130" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Gunung+Purba+View/@-7.8856773,110.2237108,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a5175867d4143:0x95cbe3c0886403b6!5m2!4m1!1i2!8m2!3d-7.83956!4d110.5201994!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11llkbclwx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
         <is>
           <t>2 tahun lalu di 
 Google</t>
@@ -5755,25 +5621,24 @@
           <t>0818-0407-8555</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr"/>
+      <c r="E131" t="n">
+        <v>5</v>
+      </c>
       <c r="F131" t="n">
-        <v>5</v>
+        <v>-7.934108</v>
       </c>
       <c r="G131" t="n">
-        <v>-7.934108</v>
-      </c>
-      <c r="H131" t="n">
         <v>110.652014</v>
       </c>
-      <c r="I131" t="b">
-        <v>0</v>
+      <c r="H131" t="b">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPOT+ON+94116+Homestay+Gua+Pindul+Kang+Haris/@-7.8856773,110.2237108,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a4b77a282931f:0x61cac844e2ff52cb!5m2!4m1!1i2!8m2!3d-7.9341084!4d110.652014!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEScHJpdmF0ZV9ndWVzdF9yb29t4AEA!16s%2Fg%2F11t_ks180f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J131" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPOT+ON+94116+Homestay+Gua+Pindul+Kang+Haris/@-7.8856773,110.2237108,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a4b77a282931f:0x61cac844e2ff52cb!5m2!4m1!1i2!8m2!3d-7.9341084!4d110.652014!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEScHJpdmF0ZV9ndWVzdF9yb29t4AEA!16s%2Fg%2F11t_ks180f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr">
         <is>
           <t>3 bulan lalu di 
 Google</t>
@@ -5801,25 +5666,24 @@
           <t>0878-3830-7780</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr"/>
+      <c r="E132" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F132" t="n">
-        <v>3.9</v>
+        <v>-8.022599</v>
       </c>
       <c r="G132" t="n">
-        <v>-8.022599</v>
-      </c>
-      <c r="H132" t="n">
         <v>110.332203</v>
       </c>
-      <c r="I132" t="b">
-        <v>0</v>
+      <c r="H132" t="b">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Losmen+Panorama/@-8.0225987,110.0438118,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7baa756b000009:0xb51a3fe5671cfb06!5m2!4m1!1i2!8m2!3d-8.0225987!4d110.3322029!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFbW90ZWzgAQA!16s%2Fg%2F11dx98x95q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J132" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Losmen+Panorama/@-8.0225987,110.0438118,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7baa756b000009:0xb51a3fe5671cfb06!5m2!4m1!1i2!8m2!3d-8.0225987!4d110.3322029!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFbW90ZWzgAQA!16s%2Fg%2F11dx98x95q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
         <is>
           <t>2 hari lalu di 
 Google</t>
@@ -5847,25 +5711,24 @@
           <t>0821-3544-6969</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr"/>
+      <c r="E133" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F133" t="n">
-        <v>4.6</v>
+        <v>-8.02624</v>
       </c>
       <c r="G133" t="n">
-        <v>-8.02624</v>
-      </c>
-      <c r="H133" t="n">
         <v>110.574194</v>
       </c>
-      <c r="I133" t="b">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr">
+      <c r="H133" t="b">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Giri+Wanara+Glamping+Resort/@-8.0262399,110.2858024,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb3feee4d8d67:0x8773d4eafed4da8c!5m2!4m1!1i2!8m2!3d-8.0262399!4d110.5741935!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11q_8qdync?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -5884,25 +5747,24 @@
           <t>(0274) 391219</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr"/>
+      <c r="E134" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F134" t="n">
-        <v>3.9</v>
+        <v>-7.967017</v>
       </c>
       <c r="G134" t="n">
-        <v>-7.967017</v>
-      </c>
-      <c r="H134" t="n">
         <v>110.606094</v>
       </c>
-      <c r="I134" t="b">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr">
+      <c r="H134" t="b">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Tilamsari+Hotel/@-7.967017,110.3177025,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb34d8cc72125:0x2efa626bf93d7ffa!5m2!4m1!1i2!8m2!3d-7.967017!4d110.6060936!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11gdhjkmyq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -5925,25 +5787,24 @@
           <t>0823-2494-3532</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr"/>
+      <c r="E135" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F135" t="n">
-        <v>4.9</v>
+        <v>-7.849452</v>
       </c>
       <c r="G135" t="n">
-        <v>-7.849452</v>
-      </c>
-      <c r="H135" t="n">
         <v>110.477596</v>
       </c>
-      <c r="I135" t="b">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr">
+      <c r="H135" t="b">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Contana+Hotel+Glamping/@-7.967017,110.3177025,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a5107239900a9:0x376b7b3308eac922!5m2!4m1!1i2!8m2!3d-7.8494521!4d110.4775963!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11v_7jkq77?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -5962,25 +5823,24 @@
           <t>0813-9289-5109</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr"/>
+      <c r="E136" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F136" t="n">
-        <v>3.8</v>
+        <v>-8.146523999999999</v>
       </c>
       <c r="G136" t="n">
-        <v>-8.146523999999999</v>
-      </c>
-      <c r="H136" t="n">
         <v>110.607053</v>
       </c>
-      <c r="I136" t="b">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr">
+      <c r="H136" t="b">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Omah+Kayu+Homestay/@-7.967017,110.3177025,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbb74596fe859:0x7fa13c991983a44e!5m2!4m1!1i2!8m2!3d-8.1465236!4d110.6070531!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFbG9kZ2XgAQA!16s%2Fg%2F11h77wlj5_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -6003,25 +5863,24 @@
           <t>0822-2704-0390</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr"/>
+      <c r="E137" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F137" t="n">
-        <v>4.9</v>
+        <v>-8.130367</v>
       </c>
       <c r="G137" t="n">
-        <v>-8.130367</v>
-      </c>
-      <c r="H137" t="n">
         <v>110.55188</v>
       </c>
-      <c r="I137" t="b">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr">
+      <c r="H137" t="b">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Naradhipta+Resort/@-7.967017,110.3177025,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbb5b51f84289:0x2d5ce14bcb80246b!5m2!4m1!1i2!8m2!3d-8.1303675!4d110.5518802!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11w49dyc2v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6044,25 +5903,24 @@
           <t>(0274) 367136</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr"/>
+      <c r="E138" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F138" t="n">
-        <v>4.4</v>
+        <v>-8.027927</v>
       </c>
       <c r="G138" t="n">
-        <v>-8.027927</v>
-      </c>
-      <c r="H138" t="n">
         <v>110.34124</v>
       </c>
-      <c r="I138" t="b">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr">
+      <c r="H138" t="b">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Queen+Of+The+South+Beach+Resort+%26+Hotel/@-8.0279269,110.0528489,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7b0096c9fe2179:0x4e00a77272d24691!5m2!4m1!1i2!8m2!3d-8.0279269!4d110.34124!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEMcmVzb3J0X2hvdGVs4AEA!16s%2Fg%2F11bc7prmf2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -6081,25 +5939,24 @@
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
-      <c r="E139" t="inlineStr"/>
+      <c r="E139" t="n">
+        <v>2</v>
+      </c>
       <c r="F139" t="n">
-        <v>2</v>
+        <v>-7.896596</v>
       </c>
       <c r="G139" t="n">
-        <v>-7.896596</v>
-      </c>
-      <c r="H139" t="n">
         <v>110.439615</v>
       </c>
-      <c r="I139" t="b">
-        <v>0</v>
+      <c r="H139" t="b">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Homestay+Kurnia/@-8.0279269,110.0528489,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a5308cb09e18b:0xa5900abc375c7473!5m2!4m1!1i2!8m2!3d-7.8965965!4d110.439615!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11qls5z5jz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J139" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Homestay+Kurnia/@-8.0279269,110.0528489,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a5308cb09e18b:0xa5900abc375c7473!5m2!4m1!1i2!8m2!3d-7.8965965!4d110.439615!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11qls5z5jz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr">
         <is>
           <t>6 hari lalu di 
 Google</t>
@@ -6123,25 +5980,24 @@
           <t>0857-2750-7728</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr"/>
+      <c r="E140" t="n">
+        <v>5</v>
+      </c>
       <c r="F140" t="n">
-        <v>5</v>
+        <v>-8.149304000000001</v>
       </c>
       <c r="G140" t="n">
-        <v>-8.149304000000001</v>
-      </c>
-      <c r="H140" t="n">
         <v>110.614844</v>
       </c>
-      <c r="I140" t="b">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr">
+      <c r="H140" t="b">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Sarwi+Endah+Beach+Cottage/@-8.1330199,110.2641113,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbb3f650ee135:0xd947db90558961c1!5m2!4m1!1i2!8m2!3d-8.1493039!4d110.6148438!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11lp1gyplr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -6160,25 +6016,24 @@
           <t>0813-9284-7532</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr"/>
+      <c r="E141" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F141" t="n">
-        <v>4.2</v>
+        <v>-8.014448</v>
       </c>
       <c r="G141" t="n">
-        <v>-8.014448</v>
-      </c>
-      <c r="H141" t="n">
         <v>110.336961</v>
       </c>
-      <c r="I141" t="b">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr">
+      <c r="H141" t="b">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Losmen+Mekar+Melati/@-8.014448,110.0485699,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7baa70ace5c9cf:0x65b3b4371b91e558!5m2!4m1!1i2!8m2!3d-8.014448!4d110.336961!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgERYmVkX2FuZF9icmVha2Zhc3TgAQA!16s%2Fg%2F11c5hjlz1t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6201,25 +6056,24 @@
           <t>0822-4257-9373</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr"/>
+      <c r="E142" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F142" t="n">
-        <v>4.4</v>
+        <v>-8.150461999999999</v>
       </c>
       <c r="G142" t="n">
-        <v>-8.150461999999999</v>
-      </c>
-      <c r="H142" t="n">
         <v>110.613981</v>
       </c>
-      <c r="I142" t="b">
-        <v>0</v>
+      <c r="H142" t="b">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Villa+Kopiori/@-8.1504615,110.3255895,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbb50a80bcb11:0x4724f8300005774b!5m2!4m1!1i2!8m2!3d-8.1504615!4d110.6139806!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEMcmVzb3J0X2hvdGVs4AEA!16s%2Fg%2F11llff6mlm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J142" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Kopiori/@-8.1504615,110.3255895,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbb50a80bcb11:0x4724f8300005774b!5m2!4m1!1i2!8m2!3d-8.1504615!4d110.6139806!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEMcmVzb3J0X2hvdGVs4AEA!16s%2Fg%2F11llff6mlm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr">
         <is>
           <t>seminggu lalu di 
 Google</t>
@@ -6243,25 +6097,24 @@
           <t>0812-8009-5776</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr"/>
+      <c r="E143" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F143" t="n">
-        <v>4.7</v>
+        <v>-8.148699000000001</v>
       </c>
       <c r="G143" t="n">
-        <v>-8.148699000000001</v>
-      </c>
-      <c r="H143" t="n">
         <v>110.616051</v>
       </c>
-      <c r="I143" t="b">
-        <v>0</v>
+      <c r="H143" t="b">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Light+Blue+Villa/@-8.1504615,110.3255895,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba2bc08b865b:0xbf761552583e2708!5m2!4m1!1i2!8m2!3d-8.1486989!4d110.6160511!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgENY291bnRyeV9ob3VzZeABAA!16s%2Fg%2F11s57yr8ks?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J143" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Light+Blue+Villa/@-8.1504615,110.3255895,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba2bc08b865b:0xbf761552583e2708!5m2!4m1!1i2!8m2!3d-8.1486989!4d110.6160511!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgENY291bnRyeV9ob3VzZeABAA!16s%2Fg%2F11s57yr8ks?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr">
         <is>
           <t>3 hari lalu di 
 Google</t>
@@ -6289,25 +6142,24 @@
           <t>0821-3746-0009</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr"/>
+      <c r="E144" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F144" t="n">
-        <v>4.2</v>
+        <v>-7.844602</v>
       </c>
       <c r="G144" t="n">
-        <v>-7.844602</v>
-      </c>
-      <c r="H144" t="n">
         <v>110.480326</v>
       </c>
-      <c r="I144" t="b">
-        <v>0</v>
+      <c r="H144" t="b">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bukit+Indah+%7C+Resto+%26+Hotel/@-7.8446018,110.1919347,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a51a580e04827:0xf3261d80d66e44ee!5m2!4m1!1i2!8m2!3d-7.8446018!4d110.4803258!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F12hrt5k92?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J144" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bukit+Indah+%7C+Resto+%26+Hotel/@-7.8446018,110.1919347,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a51a580e04827:0xf3261d80d66e44ee!5m2!4m1!1i2!8m2!3d-7.8446018!4d110.4803258!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F12hrt5k92?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K144" t="inlineStr">
         <is>
           <t>seminggu lalu di 
 Google</t>
@@ -6327,25 +6179,24 @@
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr"/>
+      <c r="E145" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F145" t="n">
-        <v>4.5</v>
+        <v>-8.104331999999999</v>
       </c>
       <c r="G145" t="n">
-        <v>-8.104331999999999</v>
-      </c>
-      <c r="H145" t="n">
         <v>110.460338</v>
       </c>
-      <c r="I145" t="b">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr">
+      <c r="H145" t="b">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/HEHA+New+Cabin%2B+Ocean+Glamping/@-8.1043318,110.1719469,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7baf0028b96af7:0xc3575bf9adebf702!5m2!4m1!1i2!8m2!3d-8.1043318!4d110.460338!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgENY2FtcGluZ19jYWJpbuABAA!16s%2Fg%2F11vk8f464z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6368,25 +6219,24 @@
           <t>0812-2692-7555</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr"/>
+      <c r="E146" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F146" t="n">
-        <v>4.6</v>
+        <v>-7.895522</v>
       </c>
       <c r="G146" t="n">
-        <v>-7.895522</v>
-      </c>
-      <c r="H146" t="n">
         <v>110.439978</v>
       </c>
-      <c r="I146" t="b">
-        <v>0</v>
+      <c r="H146" t="b">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Litto+(Little+Tokyo)+Jogja/@-8.1043318,110.1719469,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a53c1beee8dcf:0x517695ab6727d62!5m2!4m1!1i2!8m2!3d-7.8955224!4d110.4399784!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11rgfs_54t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J146" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Litto+(Little+Tokyo)+Jogja/@-8.1043318,110.1719469,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a53c1beee8dcf:0x517695ab6727d62!5m2!4m1!1i2!8m2!3d-7.8955224!4d110.4399784!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11rgfs_54t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K146" t="inlineStr">
         <is>
           <t>1 hari lalu di 
 Google</t>
@@ -6410,21 +6260,20 @@
           <t>0813-3885-8232</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="n">
+      <c r="E147" t="n">
         <v>4.9</v>
       </c>
+      <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr"/>
-      <c r="I147" t="b">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr">
+      <c r="H147" t="b">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/D'TRUST+HOMESTAY+WONOSARI+GUNUNGKIDUL/@-8.1043318,110.1719469,11z/data=!4m16!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m11!1s0x2e7bb3c3594ddcad:0x6498e136084e6581!5m2!4m1!1i2!8m2!3d-7.9537162!4d110.5933675!9m1!1b1!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgELZ3Vlc3RfaG91c2XgAQA!16s%2Fg%2F11s5p5xvmh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -6439,25 +6288,24 @@
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr"/>
+      <c r="E148" t="n">
+        <v>4</v>
+      </c>
       <c r="F148" t="n">
-        <v>4</v>
+        <v>-7.972576</v>
       </c>
       <c r="G148" t="n">
-        <v>-7.972576</v>
-      </c>
-      <c r="H148" t="n">
         <v>110.602867</v>
       </c>
-      <c r="I148" t="b">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr">
+      <c r="H148" t="b">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Penginapan+Dewi+Ratih+Inn/@-8.1043318,110.1719469,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb368fd23f8db:0x80c5ff3bcf2d6426!5m2!4m1!1i2!8m2!3d-7.9725756!4d110.6028671!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEGaG9zdGVs4AEA!16s%2Fg%2F11cfdn2g9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -6480,25 +6328,24 @@
           <t>0896-7440-5860</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr"/>
+      <c r="E149" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F149" t="n">
-        <v>4.9</v>
+        <v>-7.857397</v>
       </c>
       <c r="G149" t="n">
-        <v>-7.857397</v>
-      </c>
-      <c r="H149" t="n">
         <v>110.451983</v>
       </c>
-      <c r="I149" t="b">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr">
+      <c r="H149" t="b">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bina+Karya+Guesthouse+Syariah/@-7.8573967,110.1635917,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a5114ea4bfe39:0x854b379bbc2c6664!5m2!4m1!1i2!8m2!3d-7.8573967!4d110.4519828!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgELZ3Vlc3RfaG91c2XgAQA!16s%2Fg%2F11jp02gbc6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -6521,25 +6368,24 @@
           <t>0852-3449-4748</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr"/>
+      <c r="E150" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F150" t="n">
-        <v>4.5</v>
+        <v>-8.041929</v>
       </c>
       <c r="G150" t="n">
-        <v>-8.041929</v>
-      </c>
-      <c r="H150" t="n">
         <v>110.790856</v>
       </c>
-      <c r="I150" t="b">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr">
+      <c r="H150" t="b">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Green+Resort+Pracimantoro/@-8.0419292,110.5024653,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bc938a73a526b:0xafb2d4e5ebb2ff34!5m2!4m1!1i2!8m2!3d-8.0419292!4d110.7908564!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEMcmVzb3J0X2hvdGVs4AEA!16s%2Fg%2F11f4t88kxz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -6562,25 +6408,24 @@
           <t>(021) 29707601</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr"/>
+      <c r="E151" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F151" t="n">
-        <v>3.9</v>
+        <v>-7.95995</v>
       </c>
       <c r="G151" t="n">
-        <v>-7.95995</v>
-      </c>
-      <c r="H151" t="n">
         <v>110.603176</v>
       </c>
-      <c r="I151" t="b">
-        <v>0</v>
+      <c r="H151" t="b">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/OYO+Life+3003+Wisma+Handayani+Syariah/@-7.9599503,110.3147844,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb38c373bb21f:0x19f670fbdc137bba!5m2!4m1!1i2!8m2!3d-7.9599503!4d110.6031755!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11fq8l2_5_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J151" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/OYO+Life+3003+Wisma+Handayani+Syariah/@-7.9599503,110.3147844,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb38c373bb21f:0x19f670fbdc137bba!5m2!4m1!1i2!8m2!3d-7.9599503!4d110.6031755!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11fq8l2_5_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K151" t="inlineStr">
         <is>
           <t>4 bulan lalu di 
 Google</t>
@@ -6608,25 +6453,24 @@
           <t>0877-1666-5494</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr"/>
+      <c r="E152" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F152" t="n">
-        <v>4.3</v>
+        <v>-8.019881</v>
       </c>
       <c r="G152" t="n">
-        <v>-8.019881</v>
-      </c>
-      <c r="H152" t="n">
         <v>110.33336</v>
       </c>
-      <c r="I152" t="b">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr">
+      <c r="H152" t="b">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Villa+Alcheringa/@-8.0198809,110.0449693,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7baa75d1980e15:0x8f4ef490c981007a!5m2!4m1!1i2!8m2!3d-8.0198809!4d110.3333604!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFdmlsbGHgAQA!16s%2Fg%2F11cmcvx79x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -6649,25 +6493,24 @@
           <t>(021) 29707601</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr"/>
+      <c r="E153" t="n">
+        <v>3.5</v>
+      </c>
       <c r="F153" t="n">
-        <v>3.5</v>
+        <v>-8.001804999999999</v>
       </c>
       <c r="G153" t="n">
-        <v>-8.001804999999999</v>
-      </c>
-      <c r="H153" t="n">
         <v>110.591455</v>
       </c>
-      <c r="I153" t="b">
-        <v>0</v>
+      <c r="H153" t="b">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/OYO+92290+Hotel+Permata+Sari/@-8.0018048,110.3030639,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb3bd3ded06dd:0x5fa08853d4fd9571!5m2!4m1!1i2!8m2!3d-8.0018048!4d110.591455!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11fzlhq1hs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J153" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/OYO+92290+Hotel+Permata+Sari/@-8.0018048,110.3030639,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb3bd3ded06dd:0x5fa08853d4fd9571!5m2!4m1!1i2!8m2!3d-8.0018048!4d110.591455!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11fzlhq1hs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K153" t="inlineStr">
         <is>
           <t>seminggu lalu di 
 Google</t>
@@ -6695,25 +6538,24 @@
           <t>0815-1431-6375</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr"/>
+      <c r="E154" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F154" t="n">
-        <v>4.9</v>
+        <v>-7.949239</v>
       </c>
       <c r="G154" t="n">
-        <v>-7.949239</v>
-      </c>
-      <c r="H154" t="n">
         <v>110.335027</v>
       </c>
-      <c r="I154" t="b">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr">
+      <c r="H154" t="b">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/VILLACANTIK+YOGYAKARTA/@-7.9492394,110.0466361,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a558bfc3a4a71:0x573746340734794!5m2!4m1!1i2!8m2!3d-7.9492394!4d110.3350272!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11pxhfdpq8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -6732,25 +6574,24 @@
           <t>0817-788-016</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr"/>
+      <c r="E155" t="n">
+        <v>5</v>
+      </c>
       <c r="F155" t="n">
-        <v>5</v>
+        <v>-7.880877</v>
       </c>
       <c r="G155" t="n">
-        <v>-7.880877</v>
-      </c>
-      <c r="H155" t="n">
         <v>110.445556</v>
       </c>
-      <c r="I155" t="b">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr">
+      <c r="H155" t="b">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/OYO+94120+Penginapan+Viki+Syariah/@-7.9492394,110.0466361,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7a53e695524779:0x6f216c405201262c!5m2!4m1!1i2!8m2!3d-7.880877!4d110.445556!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11w2k1chld?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -6769,25 +6610,24 @@
           <t>0899-9164-754</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr"/>
+      <c r="E156" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F156" t="n">
-        <v>4.6</v>
+        <v>-7.963996</v>
       </c>
       <c r="G156" t="n">
-        <v>-7.963996</v>
-      </c>
-      <c r="H156" t="n">
         <v>110.594339</v>
       </c>
-      <c r="I156" t="b">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr">
+      <c r="H156" t="b">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kos+%26+Penginapan+'Kasur+Sare'/@-7.9639957,110.3059475,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb34747fe2d3d:0xa237571dcf4e79ac!5m2!4m1!1i2!8m2!3d-7.9639957!4d110.5943386!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEOYm9hcmRpbmdfaG91c2XgAQA!16s%2Fg%2F11c2ppt3v6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -6806,25 +6646,24 @@
           <t>0812-2999-8969</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr"/>
+      <c r="E157" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F157" t="n">
-        <v>4.6</v>
+        <v>-7.977264</v>
       </c>
       <c r="G157" t="n">
-        <v>-7.977264</v>
-      </c>
-      <c r="H157" t="n">
         <v>110.416018</v>
       </c>
-      <c r="I157" t="b">
-        <v>0</v>
+      <c r="H157" t="b">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Blarak+Villa/@-7.9772636,110.1276271,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bab47b524c133:0xf386d3da95d964a3!5m2!4m1!1i2!8m2!3d-7.9772636!4d110.4160182!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFdmlsbGHgAQA!16s%2Fg%2F11pkx8s3qq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J157" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Blarak+Villa/@-7.9772636,110.1276271,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bab47b524c133:0xf386d3da95d964a3!5m2!4m1!1i2!8m2!3d-7.9772636!4d110.4160182!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFdmlsbGHgAQA!16s%2Fg%2F11pkx8s3qq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K157" t="inlineStr">
         <is>
           <t>7 bulan lalu di 
 Google</t>
@@ -6848,25 +6687,24 @@
           <t>0856-4733-7357</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr"/>
+      <c r="E158" t="n">
+        <v>5</v>
+      </c>
       <c r="F158" t="n">
-        <v>5</v>
+        <v>-7.964327</v>
       </c>
       <c r="G158" t="n">
-        <v>-7.964327</v>
-      </c>
-      <c r="H158" t="n">
         <v>110.609517</v>
       </c>
-      <c r="I158" t="b">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr">
+      <c r="H158" t="b">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/OMAH+PRAYA+KOSTEL/@-7.9643268,110.3211254,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bb30079705c33:0x11946d9505fc4351!5m2!4m1!1i2!8m2!3d-7.9643268!4d110.6095165!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11w266jp_n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -6889,25 +6727,24 @@
           <t>0857-2978-0552</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr"/>
+      <c r="E159" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F159" t="n">
-        <v>3.9</v>
+        <v>-8.020313</v>
       </c>
       <c r="G159" t="n">
-        <v>-8.020313</v>
-      </c>
-      <c r="H159" t="n">
         <v>110.333402</v>
       </c>
-      <c r="I159" t="b">
-        <v>0</v>
+      <c r="H159" t="b">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Losmen+Kinasih+Puncak/@-8.0203127,110.0450105,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7baa75cea55d31:0xff23c6cf9e975b77!5m2!4m1!1i2!8m2!3d-8.0203127!4d110.3334016!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11f_cwdcnz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J159" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Losmen+Kinasih+Puncak/@-8.0203127,110.0450105,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7baa75cea55d31:0xff23c6cf9e975b77!5m2!4m1!1i2!8m2!3d-8.0203127!4d110.3334016!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11f_cwdcnz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K159" t="inlineStr">
         <is>
           <t>sebulan lalu di 
 Google</t>
@@ -6927,25 +6764,24 @@
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr"/>
+      <c r="E160" t="n">
+        <v>2</v>
+      </c>
       <c r="F160" t="n">
-        <v>2</v>
+        <v>-8.136069000000001</v>
       </c>
       <c r="G160" t="n">
-        <v>-8.136069000000001</v>
-      </c>
-      <c r="H160" t="n">
         <v>110.56453</v>
       </c>
-      <c r="I160" t="b">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr">
+      <c r="H160" t="b">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/OYO+94017+Victouris+Resort/@-8.136069,110.2761389,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba8b49732d41:0x46833ed81c390d1f!5m2!4m1!1i2!8m2!3d-8.136069!4d110.56453!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11w3zk5f9y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -6964,25 +6800,24 @@
           <t>0823-2867-2011</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr"/>
+      <c r="E161" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F161" t="n">
-        <v>4.6</v>
+        <v>-8.146679000000001</v>
       </c>
       <c r="G161" t="n">
-        <v>-8.146679000000001</v>
-      </c>
-      <c r="H161" t="n">
         <v>110.607473</v>
       </c>
-      <c r="I161" t="b">
-        <v>0</v>
+      <c r="H161" t="b">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Camping+Arena+%7C%7C+SEWA+TENDA+CAMPING/@-8.136069,110.2761389,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbb4a3fbd3e45:0x5114520c66416579!5m2!4m1!1i2!8m2!3d-8.1466789!4d110.6074725!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEKY2FtcGdyb3VuZOABAA!16s%2Fg%2F11fqptth1t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J161" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Camping+Arena+%7C%7C+SEWA+TENDA+CAMPING/@-8.136069,110.2761389,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbb4a3fbd3e45:0x5114520c66416579!5m2!4m1!1i2!8m2!3d-8.1466789!4d110.6074725!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEKY2FtcGdyb3VuZOABAA!16s%2Fg%2F11fqptth1t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K161" t="inlineStr">
         <is>
           <t>4 minggu lalu di 
 Google</t>
@@ -7006,25 +6841,24 @@
           <t>0813-2832-7199</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr"/>
+      <c r="E162" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F162" t="n">
-        <v>4.7</v>
+        <v>-8.14528</v>
       </c>
       <c r="G162" t="n">
-        <v>-8.14528</v>
-      </c>
-      <c r="H162" t="n">
         <v>110.60897</v>
       </c>
-      <c r="I162" t="b">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr">
+      <c r="H162" t="b">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Penginapan+Dua+Putra+Pantai+Sundak/@-8.136069,110.2761389,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbb33ad3d42e1:0x9b7dd1ea78793eee!5m2!4m1!1i2!8m2!3d-8.1452797!4d110.6089699!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11gmfy2_fg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -7043,25 +6877,24 @@
           <t>0888-0198-9335</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr"/>
+      <c r="E163" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F163" t="n">
-        <v>4.9</v>
+        <v>-8.133508000000001</v>
       </c>
       <c r="G163" t="n">
-        <v>-8.133508000000001</v>
-      </c>
-      <c r="H163" t="n">
         <v>110.555861</v>
       </c>
-      <c r="I163" t="b">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr">
+      <c r="H163" t="b">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Penginapan+Denciut/@-8.136069,110.2761389,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bbb4c58e02071:0x88e32076bb0ddc41!5m2!4m1!1i2!8m2!3d-8.1335084!4d110.5558611!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11sbmv_rpd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -7080,25 +6913,24 @@
           <t>0817-788-016</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr"/>
+      <c r="E164" t="n">
+        <v>1</v>
+      </c>
       <c r="F164" t="n">
-        <v>1</v>
+        <v>-8.126222</v>
       </c>
       <c r="G164" t="n">
-        <v>-8.126222</v>
-      </c>
-      <c r="H164" t="n">
         <v>110.551341</v>
       </c>
-      <c r="I164" t="b">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr">
+      <c r="H164" t="b">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/OYO+94016+Homestay+Baronsari/@-8.136069,110.2761389,11z/data=!4m14!1m3!2m2!1sPenginapan+Gunungkidul!6e3!3m9!1s0x2e7bba9a02a820bf:0x9471567b5caf999b!5m2!4m1!1i2!8m2!3d-8.126222!4d110.551341!15sChZQZW5naW5hcGFuIEd1bnVuZ2tpZHVskgEFaG90ZWzgAQA!16s%2Fg%2F11w1qgmtsv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -7112,16 +6944,15 @@
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr"/>
-      <c r="I165" t="b">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr">
+      <c r="H165" t="b">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/Penginapan+Kota+Yogyakarta/@-7.8068008,110.3463372,14z/data=!4m2!2m1!6e3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -7140,25 +6971,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr"/>
+      <c r="E166" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F166" t="n">
-        <v>3.8</v>
+        <v>-7.817489</v>
       </c>
       <c r="G166" t="n">
-        <v>-7.817489</v>
-      </c>
-      <c r="H166" t="n">
         <v>110.35824</v>
       </c>
-      <c r="I166" t="b">
-        <v>0</v>
+      <c r="H166" t="b">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Grand+Surya+Hotel+Yogyakarta/@-7.8174893,110.3221906,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a57be3d8151c9:0x58132389ce27bc13!5m2!4m1!1i2!8m2!3d-7.8174893!4d110.3582395!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBWhvdGVs4AEA!16s%2Fg%2F11xjhkp4g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J166" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Grand+Surya+Hotel+Yogyakarta/@-7.8174893,110.3221906,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a57be3d8151c9:0x58132389ce27bc13!5m2!4m1!1i2!8m2!3d-7.8174893!4d110.3582395!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBWhvdGVs4AEA!16s%2Fg%2F11xjhkp4g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K166" t="inlineStr">
         <is>
           <t>6 hari lalu di 
 Google</t>
@@ -7182,25 +7012,24 @@
           <t>0811-4988-333</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr"/>
+      <c r="E167" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F167" t="n">
-        <v>4.8</v>
+        <v>-7.818138</v>
       </c>
       <c r="G167" t="n">
-        <v>-7.818138</v>
-      </c>
-      <c r="H167" t="n">
         <v>110.370485</v>
       </c>
-      <c r="I167" t="b">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr">
+      <c r="H167" t="b">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Otu+Hostel/@-7.8174893,110.3221906,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a57a25a4f70cd:0x4eede3a10e4b7621!5m2!4m1!1i2!8m2!3d-7.818138!4d110.3704853!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBmhvc3RlbOABAA!16s%2Fg%2F11hbklpb0y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -7223,25 +7052,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr"/>
+      <c r="E168" t="n">
+        <v>3.6</v>
+      </c>
       <c r="F168" t="n">
-        <v>3.6</v>
+        <v>-7.781041</v>
       </c>
       <c r="G168" t="n">
-        <v>-7.781041</v>
-      </c>
-      <c r="H168" t="n">
         <v>110.366818</v>
       </c>
-      <c r="I168" t="b">
-        <v>0</v>
+      <c r="H168" t="b">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/RedDoorz+near+Tugu+Yogyakarta/@-7.7810414,110.3307687,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a583a07ed52f1:0x1216ec2b5ec22a30!5m2!4m1!1i2!8m2!3d-7.7810414!4d110.3668176!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBWhvdGVs4AEA!16s%2Fg%2F11f_wtp1z2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J168" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/RedDoorz+near+Tugu+Yogyakarta/@-7.7810414,110.3307687,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a583a07ed52f1:0x1216ec2b5ec22a30!5m2!4m1!1i2!8m2!3d-7.7810414!4d110.3668176!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBWhvdGVs4AEA!16s%2Fg%2F11f_wtp1z2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K168" t="inlineStr">
         <is>
           <t>3 minggu lalu di 
 Google</t>
@@ -7269,25 +7097,24 @@
           <t>0819-1491-3931</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr"/>
+      <c r="E169" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F169" t="n">
-        <v>4.6</v>
+        <v>-7.828255</v>
       </c>
       <c r="G169" t="n">
-        <v>-7.828255</v>
-      </c>
-      <c r="H169" t="n">
         <v>110.377822</v>
       </c>
-      <c r="I169" t="b">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr">
+      <c r="H169" t="b">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Tiga+Dua+Homestay/@-7.8282546,110.3417734,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a57a82ffcc549:0xb20404d6248f0a2b!5m2!4m1!1i2!8m2!3d-7.8282546!4d110.3778223!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBWhvdGVs4AEA!16s%2Fg%2F11d_1sbbgl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -7310,25 +7137,24 @@
           <t>0856-4374-9900</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr"/>
+      <c r="E170" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F170" t="n">
-        <v>4.8</v>
+        <v>-7.793432</v>
       </c>
       <c r="G170" t="n">
-        <v>-7.793432</v>
-      </c>
-      <c r="H170" t="n">
         <v>110.369387</v>
       </c>
-      <c r="I170" t="b">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr">
+      <c r="H170" t="b">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Jogja+Backpacker+Home/@-7.7934325,110.3333385,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a58285529da09:0x50190d24ea46baa1!5m2!4m1!1i2!8m2!3d-7.7934325!4d110.3693874!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBmhvc3RlbOABAA!16s%2Fg%2F11c6shqqjp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -7343,25 +7169,24 @@
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr"/>
-      <c r="E171" t="inlineStr"/>
+      <c r="E171" t="n">
+        <v>4</v>
+      </c>
       <c r="F171" t="n">
-        <v>4</v>
+        <v>-7.796965</v>
       </c>
       <c r="G171" t="n">
-        <v>-7.796965</v>
-      </c>
-      <c r="H171" t="n">
         <v>110.371008</v>
       </c>
-      <c r="I171" t="b">
-        <v>0</v>
+      <c r="H171" t="b">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Hotel/@-7.7934325,110.3333385,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a57876aecd9bf:0x928061c77d7e870e!5m2!4m1!1i2!8m2!3d-7.7969654!4d110.3710079!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBWhvdGVs4AEA!16s%2Fg%2F1ty2bb72?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J171" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Hotel/@-7.7934325,110.3333385,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a57876aecd9bf:0x928061c77d7e870e!5m2!4m1!1i2!8m2!3d-7.7969654!4d110.3710079!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBWhvdGVs4AEA!16s%2Fg%2F1ty2bb72?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K171" t="inlineStr">
         <is>
           <t>3 hari lalu di 
 Google</t>
@@ -7389,25 +7214,24 @@
           <t>(021) 29707601</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr"/>
+      <c r="E172" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F172" t="n">
-        <v>3.7</v>
+        <v>-7.807437</v>
       </c>
       <c r="G172" t="n">
-        <v>-7.807437</v>
-      </c>
-      <c r="H172" t="n">
         <v>110.356166</v>
       </c>
-      <c r="I172" t="b">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr">
+      <c r="H172" t="b">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPOT+ON+2857+Hotel+Pelangi/@-7.7934325,110.3333385,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a5792a2ca9573:0x7fd1c36252e086db!5m2!4m1!1i2!8m2!3d-7.8074372!4d110.3561655!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBWhvdGVs4AEA!16s%2Fg%2F11frf80mvh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -7430,25 +7254,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr"/>
+      <c r="E173" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F173" t="n">
-        <v>4.1</v>
+        <v>-7.779398</v>
       </c>
       <c r="G173" t="n">
-        <v>-7.779398</v>
-      </c>
-      <c r="H173" t="n">
         <v>110.364075</v>
       </c>
-      <c r="I173" t="b">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr">
+      <c r="H173" t="b">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Urbanview+Omah+Eka+Santi+by+RedDoorz/@-7.7934325,110.3333385,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a5839a371ffa7:0x2892903edef1c2c4!5m2!4m1!1i2!8m2!3d-7.7793985!4d110.3640747!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBWhvdGVs4AEA!16s%2Fg%2F1vhjwf9m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -7471,25 +7294,24 @@
           <t>0813-1242-9282</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr"/>
+      <c r="E174" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F174" t="n">
-        <v>4.2</v>
+        <v>-7.793263</v>
       </c>
       <c r="G174" t="n">
-        <v>-7.793263</v>
-      </c>
-      <c r="H174" t="n">
         <v>110.358988</v>
       </c>
-      <c r="I174" t="b">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr">
+      <c r="H174" t="b">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Penginapan+Prima+Syariah+Murah+Dekat+Malioboro+%7C+Ready+Kamar+Backpacker+Sekitar+Stasiun+Tugu+Jogja/@-7.7934325,110.3333385,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a58216c9b88e1:0x362619549bfcd159!5m2!4m1!1i2!8m2!3d-7.7932626!4d110.3589877!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBWhvdGVs4AEA!16s%2Fg%2F11gghdhdq1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -7512,25 +7334,24 @@
           <t>0813-8678-8669</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr"/>
+      <c r="E175" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F175" t="n">
-        <v>4.5</v>
+        <v>-7.797056</v>
       </c>
       <c r="G175" t="n">
-        <v>-7.797056</v>
-      </c>
-      <c r="H175" t="n">
         <v>110.370452</v>
       </c>
-      <c r="I175" t="b">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr">
+      <c r="H175" t="b">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Front+One+Cabin+Malioboro+Jogja/@-7.7934325,110.3333385,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a578712fde2bd:0xba208e0d139f2670!5m2!4m1!1i2!8m2!3d-7.7970564!4d110.3704515!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBWhvdGVs4AEA!16s%2Fg%2F11ff5m_bpm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -7553,25 +7374,24 @@
           <t>0858-0642-0852</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr"/>
+      <c r="E176" t="n">
+        <v>4</v>
+      </c>
       <c r="F176" t="n">
-        <v>4</v>
+        <v>-7.791485</v>
       </c>
       <c r="G176" t="n">
-        <v>-7.791485</v>
-      </c>
-      <c r="H176" t="n">
         <v>110.35647</v>
       </c>
-      <c r="I176" t="b">
-        <v>0</v>
+      <c r="H176" t="b">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Java+Homestay/@-7.7934325,110.3333385,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a59cfdd0b692b:0xf93ddf2ef2a15b25!5m2!4m1!1i2!8m2!3d-7.791485!4d110.3564702!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBWhvdGVs4AEA!16s%2Fg%2F11h9kq1jls?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J176" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Java+Homestay/@-7.7934325,110.3333385,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a59cfdd0b692b:0xf93ddf2ef2a15b25!5m2!4m1!1i2!8m2!3d-7.791485!4d110.3564702!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBWhvdGVs4AEA!16s%2Fg%2F11h9kq1jls?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K176" t="inlineStr">
         <is>
           <t>4 minggu lalu di 
 Google</t>
@@ -7599,25 +7419,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr"/>
+      <c r="E177" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F177" t="n">
-        <v>4.1</v>
+        <v>-7.789042</v>
       </c>
       <c r="G177" t="n">
-        <v>-7.789042</v>
-      </c>
-      <c r="H177" t="n">
         <v>110.370879</v>
       </c>
-      <c r="I177" t="b">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr">
+      <c r="H177" t="b">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Hotel+Sekar+Ayu/@-7.7934325,110.3333385,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a582e866f5ffd:0xcf1d98017df6c34a!5m2!4m1!1i2!8m2!3d-7.7890418!4d110.3708786!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBWhvdGVs4AEA!16s%2Fg%2F11g1lsfwv9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -7640,25 +7459,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr"/>
+      <c r="E178" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F178" t="n">
-        <v>4.3</v>
+        <v>-7.803071</v>
       </c>
       <c r="G178" t="n">
-        <v>-7.803071</v>
-      </c>
-      <c r="H178" t="n">
         <v>110.355676</v>
       </c>
-      <c r="I178" t="b">
-        <v>0</v>
+      <c r="H178" t="b">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/RedDoorz+Syariah+near+Titik+Nol+Yogyakarta/@-7.7934325,110.3333385,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a57f2c4370af7:0x502635c9234a92d4!5m2!4m1!1i2!8m2!3d-7.8030711!4d110.355676!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBC2d1ZXN0X2hvdXNl4AEA!16s%2Fg%2F11h8j_slyx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J178" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/RedDoorz+Syariah+near+Titik+Nol+Yogyakarta/@-7.7934325,110.3333385,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a57f2c4370af7:0x502635c9234a92d4!5m2!4m1!1i2!8m2!3d-7.8030711!4d110.355676!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBC2d1ZXN0X2hvdXNl4AEA!16s%2Fg%2F11h8j_slyx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K178" t="inlineStr">
         <is>
           <t>2 minggu lalu di 
 Google</t>
@@ -7686,25 +7504,24 @@
           <t>0851-8723-3465</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr"/>
+      <c r="E179" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F179" t="n">
-        <v>4.3</v>
+        <v>-7.782794</v>
       </c>
       <c r="G179" t="n">
-        <v>-7.782794</v>
-      </c>
-      <c r="H179" t="n">
         <v>110.388866</v>
       </c>
-      <c r="I179" t="b">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr">
+      <c r="H179" t="b">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Newly+Mutiara+Residence+Near+Lippo+Mall+Yogyakarta/@-7.7827939,110.3528167,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a59448e8ccd77:0x3c868af7530c8c43!5m2!4m1!1i2!8m2!3d-7.7827939!4d110.3888656!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBWhvdGVs4AEA!16s%2Fg%2F11wxfhxdsz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -7723,25 +7540,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr"/>
+      <c r="E180" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F180" t="n">
-        <v>4.2</v>
+        <v>-7.795864</v>
       </c>
       <c r="G180" t="n">
-        <v>-7.795864</v>
-      </c>
-      <c r="H180" t="n">
         <v>110.386131</v>
       </c>
-      <c r="I180" t="b">
-        <v>0</v>
+      <c r="H180" t="b">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/RedDoorz+Hostel+near+Stadion+Mandala+Krida+Yogya/@-7.7827939,110.3528167,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a577cea2d645f:0xce88caecfecc75f8!5m2!4m1!1i2!8m2!3d-7.7958645!4d110.3861308!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBC2d1ZXN0X2hvdXNl4AEA!16s%2Fg%2F11h9bdxw7q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J180" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/RedDoorz+Hostel+near+Stadion+Mandala+Krida+Yogya/@-7.7827939,110.3528167,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a577cea2d645f:0xce88caecfecc75f8!5m2!4m1!1i2!8m2!3d-7.7958645!4d110.3861308!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBC2d1ZXN0X2hvdXNl4AEA!16s%2Fg%2F11h9bdxw7q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K180" t="inlineStr">
         <is>
           <t>seminggu lalu di 
 Google</t>
@@ -7769,25 +7585,24 @@
           <t>0877-7638-4171</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr"/>
+      <c r="E181" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F181" t="n">
-        <v>4.4</v>
+        <v>-7.834204</v>
       </c>
       <c r="G181" t="n">
-        <v>-7.834204</v>
-      </c>
-      <c r="H181" t="n">
         <v>110.369234</v>
       </c>
-      <c r="I181" t="b">
-        <v>0</v>
+      <c r="H181" t="b">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/RedDoorz+@+Omah+Kayu+Homestay+Yogyakarta/@-7.834204,110.3331851,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a57ada8acecb1:0xf0e640403c5a3c4c!5m2!4m1!1i2!8m2!3d-7.834204!4d110.369234!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBWhvdGVs4AEA!16s%2Fg%2F11ddxnlfxn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J181" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/RedDoorz+@+Omah+Kayu+Homestay+Yogyakarta/@-7.834204,110.3331851,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a57ada8acecb1:0xf0e640403c5a3c4c!5m2!4m1!1i2!8m2!3d-7.834204!4d110.369234!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBWhvdGVs4AEA!16s%2Fg%2F11ddxnlfxn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K181" t="inlineStr">
         <is>
           <t>seminggu lalu di 
 Google</t>
@@ -7815,25 +7630,24 @@
           <t>0819-9847-1232</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr"/>
+      <c r="E182" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F182" t="n">
-        <v>4.6</v>
+        <v>-7.796562</v>
       </c>
       <c r="G182" t="n">
-        <v>-7.796562</v>
-      </c>
-      <c r="H182" t="n">
         <v>110.363002</v>
       </c>
-      <c r="I182" t="b">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr">
+      <c r="H182" t="b">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Yogyakarta+BnB+Malioboro/@-7.7965617,110.3269529,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a5789d0837ce1:0x9dc6fb76e6837e7f!5m2!4m1!1i2!8m2!3d-7.7965617!4d110.3630018!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11cjhs50l_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -7852,25 +7666,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr"/>
+      <c r="E183" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F183" t="n">
-        <v>3.8</v>
+        <v>-7.781486</v>
       </c>
       <c r="G183" t="n">
-        <v>-7.781486</v>
-      </c>
-      <c r="H183" t="n">
         <v>110.366692</v>
       </c>
-      <c r="I183" t="b">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr">
+      <c r="H183" t="b">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Golden+Inn+Yogyakarta+2/@-7.7965617,110.3269529,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a592939281461:0x67e06070ec66766e!5m2!4m1!1i2!8m2!3d-7.781486!4d110.3666915!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBWhvdGVs4AEA!16s%2Fg%2F11fhr1k2ch?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -7889,25 +7702,24 @@
           <t>0813-2864-9814</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr"/>
+      <c r="E184" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F184" t="n">
-        <v>4.4</v>
+        <v>-7.80859</v>
       </c>
       <c r="G184" t="n">
-        <v>-7.80859</v>
-      </c>
-      <c r="H184" t="n">
         <v>110.345008</v>
       </c>
-      <c r="I184" t="b">
-        <v>0</v>
+      <c r="H184" t="b">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sonosewu+Guesthouse/@-7.8085901,110.3089593,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a57d8cb683323:0xe01870fe4ec42c2d!5m2!4m1!1i2!8m2!3d-7.8085901!4d110.3450082!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBC2d1ZXN0X2hvdXNl4AEA!16s%2Fg%2F11f5vdv53b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J184" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sonosewu+Guesthouse/@-7.8085901,110.3089593,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a57d8cb683323:0xe01870fe4ec42c2d!5m2!4m1!1i2!8m2!3d-7.8085901!4d110.3450082!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBC2d1ZXN0X2hvdXNl4AEA!16s%2Fg%2F11f5vdv53b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K184" t="inlineStr">
         <is>
           <t>23 jam lalu di 
 Google</t>
@@ -7935,25 +7747,24 @@
           <t>0823-8803-1130</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr"/>
+      <c r="E185" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F185" t="n">
-        <v>4.2</v>
+        <v>-7.802254</v>
       </c>
       <c r="G185" t="n">
-        <v>-7.802254</v>
-      </c>
-      <c r="H185" t="n">
         <v>110.235069</v>
       </c>
-      <c r="I185" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr">
+      <c r="H185" t="b">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Private+Villa+-+Arimbi+Resort/@-7.8022542,109.9466779,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7af74b4b67bdc5:0xa8ebf9ca4f198baf!5m2!4m1!1i2!8m2!3d-7.8022542!4d110.235069!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEFdmlsbGHgAQA!16s%2Fg%2F11tc2tjtgw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -7973,22 +7784,21 @@
         </is>
       </c>
       <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
+      <c r="F186" t="n">
+        <v>-7.773608</v>
+      </c>
       <c r="G186" t="n">
-        <v>-7.773608</v>
-      </c>
-      <c r="H186" t="n">
         <v>110.179679</v>
       </c>
-      <c r="I186" t="b">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr">
+      <c r="H186" t="b">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Wisma+Pancoeran/@-7.8022542,109.9466779,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7af19cb95b4e89:0x62a26f18a40a75fa!5m2!4m1!1i2!8m2!3d-7.773608!4d110.1796793!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEFaG90ZWzgAQA!16s%2Fg%2F11f5lygvbg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -8007,25 +7817,24 @@
           <t>0813-9102-5207</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr"/>
+      <c r="E187" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F187" t="n">
-        <v>4.6</v>
+        <v>-7.752379</v>
       </c>
       <c r="G187" t="n">
-        <v>-7.752379</v>
-      </c>
-      <c r="H187" t="n">
         <v>110.205545</v>
       </c>
-      <c r="I187" t="b">
-        <v>0</v>
+      <c r="H187" t="b">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Joglo+Menoreh+Resto/@-7.8022542,109.9466779,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7af1180148154f:0x18659a4ac6960c57!5m2!4m1!1i2!8m2!3d-7.7523794!4d110.2055448!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11n0zp7s6k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J187" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Joglo+Menoreh+Resto/@-7.8022542,109.9466779,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7af1180148154f:0x18659a4ac6960c57!5m2!4m1!1i2!8m2!3d-7.7523794!4d110.2055448!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11n0zp7s6k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K187" t="inlineStr">
         <is>
           <t>2 hari lalu di 
 Google</t>
@@ -8053,25 +7862,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr"/>
+      <c r="E188" t="n">
+        <v>3.6</v>
+      </c>
       <c r="F188" t="n">
-        <v>3.6</v>
+        <v>-7.892949</v>
       </c>
       <c r="G188" t="n">
-        <v>-7.892949</v>
-      </c>
-      <c r="H188" t="n">
         <v>110.134514</v>
       </c>
-      <c r="I188" t="b">
-        <v>0</v>
+      <c r="H188" t="b">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Griya+Tetirah+Syariah+Mitra+RedDoorz/@-7.8022542,109.9466779,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7ae368a657ec05:0x8a747aa0865e1261!5m2!4m1!1i2!8m2!3d-7.8929495!4d110.1345138!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEFaG90ZWzgAQA!16s%2Fg%2F11r_xy1jnt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J188" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Griya+Tetirah+Syariah+Mitra+RedDoorz/@-7.8022542,109.9466779,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7ae368a657ec05:0x8a747aa0865e1261!5m2!4m1!1i2!8m2!3d-7.8929495!4d110.1345138!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEFaG90ZWzgAQA!16s%2Fg%2F11r_xy1jnt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K188" t="inlineStr">
         <is>
           <t>2 minggu lalu di 
 Google</t>
@@ -8095,25 +7903,24 @@
           <t>0821-3484-3189</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr"/>
+      <c r="E189" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F189" t="n">
-        <v>4.7</v>
+        <v>-7.751545</v>
       </c>
       <c r="G189" t="n">
-        <v>-7.751545</v>
-      </c>
-      <c r="H189" t="n">
         <v>110.232456</v>
       </c>
-      <c r="I189" t="b">
-        <v>0</v>
+      <c r="H189" t="b">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gado-gado+BnB/@-7.8022542,109.9466779,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7af12d8015849b:0x64c85ee8810cc1ee!5m2!4m1!1i2!8m2!3d-7.7515455!4d110.2324555!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEScHJpdmF0ZV9ndWVzdF9yb29t4AEA!16s%2Fg%2F11f1tcqkw_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J189" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gado-gado+BnB/@-7.8022542,109.9466779,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7af12d8015849b:0x64c85ee8810cc1ee!5m2!4m1!1i2!8m2!3d-7.7515455!4d110.2324555!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEScHJpdmF0ZV9ndWVzdF9yb29t4AEA!16s%2Fg%2F11f1tcqkw_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K189" t="inlineStr">
         <is>
           <t>seminggu lalu di 
 Google</t>
@@ -8141,25 +7948,24 @@
           <t>0812-8565-0223</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr"/>
+      <c r="E190" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F190" t="n">
-        <v>4.9</v>
+        <v>-7.769206</v>
       </c>
       <c r="G190" t="n">
-        <v>-7.769206</v>
-      </c>
-      <c r="H190" t="n">
         <v>110.189925</v>
       </c>
-      <c r="I190" t="b">
-        <v>0</v>
+      <c r="H190" t="b">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Svarna+Padi+Penginapan+dan+Resto/@-7.8022542,109.9466779,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7af100267c37dd:0x1a80ad2717ade366!5m2!4m1!1i2!8m2!3d-7.7692057!4d110.1899254!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11vsnw9f7r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J190" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Svarna+Padi+Penginapan+dan+Resto/@-7.8022542,109.9466779,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7af100267c37dd:0x1a80ad2717ade366!5m2!4m1!1i2!8m2!3d-7.7692057!4d110.1899254!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11vsnw9f7r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K190" t="inlineStr">
         <is>
           <t>5 hari lalu di 
 Google</t>
@@ -8187,25 +7993,24 @@
           <t>0822-2622-8323</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr"/>
+      <c r="E191" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F191" t="n">
-        <v>4.5</v>
+        <v>-7.653962</v>
       </c>
       <c r="G191" t="n">
-        <v>-7.653962</v>
-      </c>
-      <c r="H191" t="n">
         <v>110.140932</v>
       </c>
-      <c r="I191" t="b">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr">
+      <c r="H191" t="b">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Rimbono+HomeStay/@-7.8022542,109.9466779,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7af2eff410c6eb:0xc4d4eb7dae681491!5m2!4m1!1i2!8m2!3d-7.6539622!4d110.1409322!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEFbG9kZ2XgAQA!16s%2Fg%2F11bc7sqjcr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -8228,25 +8033,24 @@
           <t>0816-1181-859</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr"/>
+      <c r="E192" t="n">
+        <v>5</v>
+      </c>
       <c r="F192" t="n">
-        <v>5</v>
+        <v>-7.824246</v>
       </c>
       <c r="G192" t="n">
-        <v>-7.824246</v>
-      </c>
-      <c r="H192" t="n">
         <v>110.2511</v>
       </c>
-      <c r="I192" t="b">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr">
+      <c r="H192" t="b">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Dandaman+Villa/@-7.8022542,109.9466779,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7af96c015a68dd:0x4b0e483586ac3f0c!5m2!4m1!1i2!8m2!3d-7.8242457!4d110.2511002!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEFdmlsbGHgAQA!16s%2Fg%2F11vm7m2xh7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -8265,25 +8069,24 @@
           <t>0815-7726-910</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr"/>
+      <c r="E193" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F193" t="n">
-        <v>4.7</v>
+        <v>-7.783757</v>
       </c>
       <c r="G193" t="n">
-        <v>-7.783757</v>
-      </c>
-      <c r="H193" t="n">
         <v>110.241214</v>
       </c>
-      <c r="I193" t="b">
-        <v>0</v>
+      <c r="H193" t="b">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Omah+Betakan+Homestay+%26+Cafe/@-7.8022542,109.9466779,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7af71c11dd21e9:0xbfa800102d1a6cd1!5m2!4m1!1i2!8m2!3d-7.7837571!4d110.2412138!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEScHJpdmF0ZV9ndWVzdF9yb29t4AEA!16s%2Fg%2F11qq9s180b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J193" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Omah+Betakan+Homestay+%26+Cafe/@-7.8022542,109.9466779,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7af71c11dd21e9:0xbfa800102d1a6cd1!5m2!4m1!1i2!8m2!3d-7.7837571!4d110.2412138!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEScHJpdmF0ZV9ndWVzdF9yb29t4AEA!16s%2Fg%2F11qq9s180b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K193" t="inlineStr">
         <is>
           <t>6 hari lalu di 
 Google</t>
@@ -8304,22 +8107,21 @@
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
+      <c r="F194" t="n">
+        <v>-7.855362</v>
+      </c>
       <c r="G194" t="n">
-        <v>-7.855362</v>
-      </c>
-      <c r="H194" t="n">
         <v>110.161035</v>
       </c>
-      <c r="I194" t="b">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr">
+      <c r="H194" t="b">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Penginapan+Syariah+Mbak+Ibek+Wates+Kulon+Progo/@-7.8022542,109.9466779,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7afb007411e79b:0x469b35d596f857ac!5m2!4m1!1i2!8m2!3d-7.8553624!4d110.161035!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEFaG90ZWzgAQA!16s%2Fg%2F11whp9_ltr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -8338,25 +8140,24 @@
           <t>(0274) 7723282</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr"/>
+      <c r="E195" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F195" t="n">
-        <v>4.7</v>
+        <v>-7.882581</v>
       </c>
       <c r="G195" t="n">
-        <v>-7.882581</v>
-      </c>
-      <c r="H195" t="n">
         <v>110.046366</v>
       </c>
-      <c r="I195" t="b">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr">
+      <c r="H195" t="b">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Hotel+Omah+Soemantri/@-7.8825812,109.757975,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7ae5f6a9998cff:0x651fcfe6315bc50e!5m2!4m1!1i2!8m2!3d-7.8825812!4d110.0463661!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgERYmVkX2FuZF9icmVha2Zhc3TgAQA!16s%2Fg%2F11nxx4g_1t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -8375,25 +8176,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr"/>
+      <c r="E196" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F196" t="n">
-        <v>3.8</v>
+        <v>-7.886698</v>
       </c>
       <c r="G196" t="n">
-        <v>-7.886698</v>
-      </c>
-      <c r="H196" t="n">
         <v>110.079039</v>
       </c>
-      <c r="I196" t="b">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr">
+      <c r="H196" t="b">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Hotel+Andono+near+YIA+Mitra+RedDoorz/@-7.8825812,109.757975,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7ae54f8003dd01:0x4dc917a5a3e4d39d!5m2!4m1!1i2!8m2!3d-7.8866985!4d110.0790385!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEFaG90ZWzgAQA!16s%2Fg%2F11vsph8cy4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -8412,25 +8212,24 @@
           <t>0812-2642-3337</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr"/>
+      <c r="E197" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F197" t="n">
-        <v>4.7</v>
+        <v>-7.728507</v>
       </c>
       <c r="G197" t="n">
-        <v>-7.728507</v>
-      </c>
-      <c r="H197" t="n">
         <v>110.263907</v>
       </c>
-      <c r="I197" t="b">
-        <v>0</v>
+      <c r="H197" t="b">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Omah+Minggir/@-7.7285072,109.975516,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7af699e7bdc3e7:0x50fe79db4c9d4cca!5m2!4m1!1i2!8m2!3d-7.7285072!4d110.2639071!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgELY29mZmVlX3Nob3DgAQA!16s%2Fg%2F11dx931086?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J197" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Omah+Minggir/@-7.7285072,109.975516,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7af699e7bdc3e7:0x50fe79db4c9d4cca!5m2!4m1!1i2!8m2!3d-7.7285072!4d110.2639071!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgELY29mZmVlX3Nob3DgAQA!16s%2Fg%2F11dx931086?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K197" t="inlineStr">
         <is>
           <t>3 hari lalu di 
 Google</t>
@@ -8454,25 +8253,24 @@
           <t>(0274) 774994</t>
         </is>
       </c>
-      <c r="E198" t="inlineStr"/>
+      <c r="E198" t="n">
+        <v>3.5</v>
+      </c>
       <c r="F198" t="n">
-        <v>3.5</v>
+        <v>-7.865055</v>
       </c>
       <c r="G198" t="n">
-        <v>-7.865055</v>
-      </c>
-      <c r="H198" t="n">
         <v>110.150964</v>
       </c>
-      <c r="I198" t="b">
-        <v>0</v>
+      <c r="H198" t="b">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Hotel+King's/@-7.7285072,109.975516,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7ae47bdd922811:0xb9e3a2230c1472e9!5m2!4m1!1i2!8m2!3d-7.865055!4d110.1509639!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEFaG90ZWzgAQA!16s%2Fg%2F11y31g5qh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J198" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Hotel+King's/@-7.7285072,109.975516,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7ae47bdd922811:0xb9e3a2230c1472e9!5m2!4m1!1i2!8m2!3d-7.865055!4d110.1509639!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEFaG90ZWzgAQA!16s%2Fg%2F11y31g5qh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K198" t="inlineStr">
         <is>
           <t>2 bulan lalu di 
 Google</t>
@@ -8496,25 +8294,24 @@
           <t>0812-3457-6532</t>
         </is>
       </c>
-      <c r="E199" t="inlineStr"/>
+      <c r="E199" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F199" t="n">
-        <v>4.9</v>
+        <v>-7.827115</v>
       </c>
       <c r="G199" t="n">
-        <v>-7.827115</v>
-      </c>
-      <c r="H199" t="n">
         <v>110.257081</v>
       </c>
-      <c r="I199" t="b">
-        <v>0</v>
+      <c r="H199" t="b">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Lasakha+Villa/@-7.7285072,109.975516,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7af94a5a7a6141:0xbedb64c022add560!5m2!4m1!1i2!8m2!3d-7.8271154!4d110.2570813!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEFdmlsbGHgAQA!16s%2Fg%2F11t9pwkvvy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J199" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Lasakha+Villa/@-7.7285072,109.975516,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7af94a5a7a6141:0xbedb64c022add560!5m2!4m1!1i2!8m2!3d-7.8271154!4d110.2570813!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEFdmlsbGHgAQA!16s%2Fg%2F11t9pwkvvy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K199" t="inlineStr">
         <is>
           <t>22 jam lalu di 
 Google</t>
@@ -8542,25 +8339,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E200" t="inlineStr"/>
+      <c r="E200" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F200" t="n">
-        <v>4.8</v>
+        <v>-7.884996</v>
       </c>
       <c r="G200" t="n">
-        <v>-7.884996</v>
-      </c>
-      <c r="H200" t="n">
         <v>110.064936</v>
       </c>
-      <c r="I200" t="b">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr">
+      <c r="H200" t="b">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Elma+Guesthouse+YIA+KulonProgo+Yogyakarta+mitra+RedDoorz/@-7.8849956,109.7765445,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7ae54d12a827d1:0xff5a92d0d3aadb68!5m2!4m1!1i2!8m2!3d-7.8849956!4d110.0649356!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgEFaG90ZWzgAQA!16s%2Fg%2F11vy7cz4bk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -8579,25 +8375,24 @@
           <t>0851-5074-5304</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr"/>
+      <c r="E201" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F201" t="n">
-        <v>4.4</v>
+        <v>-7.749033</v>
       </c>
       <c r="G201" t="n">
-        <v>-7.749033</v>
-      </c>
-      <c r="H201" t="n">
         <v>110.207715</v>
       </c>
-      <c r="I201" t="b">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr">
+      <c r="H201" t="b">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Skye+Nest/@-7.8849956,109.7765445,11z/data=!4m14!1m3!2m2!1sPenginapan+Kulon+Progo!6e3!3m9!1s0x2e7a58f220a9f135:0x3c7a51c42b62a00e!5m2!4m1!1i2!8m2!3d-7.7490326!4d110.2077147!15sChZQZW5naW5hcGFuIEt1bG9uIFByb2dvkgELZ3Vlc3RfaG91c2XgAQA!16s%2Fg%2F11f_zp2m4z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -8620,25 +8415,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr"/>
+      <c r="E202" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F202" t="n">
-        <v>4.5</v>
+        <v>-7.707674</v>
       </c>
       <c r="G202" t="n">
-        <v>-7.707674</v>
-      </c>
-      <c r="H202" t="n">
         <v>110.356297</v>
       </c>
-      <c r="I202" t="b">
-        <v>0</v>
+      <c r="H202" t="b">
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Reddoorz+Pondok+Eyang+Obi/@-7.7183079,110.3072452,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5fc4a159b2e7:0x48bd6ed884563fcb!5m2!4m1!1i2!8m2!3d-7.707674!4d110.356297!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11ftgpzlbw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J202" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Reddoorz+Pondok+Eyang+Obi/@-7.7183079,110.3072452,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5fc4a159b2e7:0x48bd6ed884563fcb!5m2!4m1!1i2!8m2!3d-7.707674!4d110.356297!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11ftgpzlbw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K202" t="inlineStr">
         <is>
           <t>seminggu lalu di 
 Google</t>
@@ -8666,25 +8460,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E203" t="inlineStr"/>
+      <c r="E203" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F203" t="n">
-        <v>4.4</v>
+        <v>-7.722252</v>
       </c>
       <c r="G203" t="n">
-        <v>-7.722252</v>
-      </c>
-      <c r="H203" t="n">
         <v>110.352948</v>
       </c>
-      <c r="I203" t="b">
-        <v>0</v>
+      <c r="H203" t="b">
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Asram+Edupark/@-7.7183079,110.3072452,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a59fe77c449e1:0xb9aa4181e1d8e167!5m2!4m1!1i2!8m2!3d-7.7222525!4d110.3529476!15sChFQZW5naW5hcGFuIFNsZW1hbpIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11g_xby2w0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J203" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Asram+Edupark/@-7.7183079,110.3072452,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a59fe77c449e1:0xb9aa4181e1d8e167!5m2!4m1!1i2!8m2!3d-7.7222525!4d110.3529476!15sChFQZW5naW5hcGFuIFNsZW1hbpIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11g_xby2w0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K203" t="inlineStr">
         <is>
           <t>1 hari lalu di 
 Google</t>
@@ -8712,25 +8505,24 @@
           <t>0877-3913-9666</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr"/>
+      <c r="E204" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F204" t="n">
-        <v>4.3</v>
+        <v>-7.710036</v>
       </c>
       <c r="G204" t="n">
-        <v>-7.710036</v>
-      </c>
-      <c r="H204" t="n">
         <v>110.355289</v>
       </c>
-      <c r="I204" t="b">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr">
+      <c r="H204" t="b">
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/PRIMA+SR+Hotel+%26+Convention+Yogyakarta/@-7.7183079,110.3072452,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7af688207b2a05:0x3a91c5f4ffad216!5m2!4m1!1i2!8m2!3d-7.7100362!4d110.355289!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11bwfllnhr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -8753,25 +8545,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E205" t="inlineStr"/>
+      <c r="E205" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F205" t="n">
-        <v>4.4</v>
+        <v>-7.72151</v>
       </c>
       <c r="G205" t="n">
-        <v>-7.72151</v>
-      </c>
-      <c r="H205" t="n">
         <v>110.362094</v>
       </c>
-      <c r="I205" t="b">
-        <v>0</v>
+      <c r="H205" t="b">
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/RedDoorz+near+Sleman+City+Hall+2/@-7.7183079,110.3072452,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a59d30c054f4b:0xac0456338bea657a!5m2!4m1!1i2!8m2!3d-7.7215095!4d110.3620941!15sChFQZW5naW5hcGFuIFNsZW1hbpIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11k059qpgt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J205" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/RedDoorz+near+Sleman+City+Hall+2/@-7.7183079,110.3072452,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a59d30c054f4b:0xac0456338bea657a!5m2!4m1!1i2!8m2!3d-7.7215095!4d110.3620941!15sChFQZW5naW5hcGFuIFNsZW1hbpIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11k059qpgt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K205" t="inlineStr">
         <is>
           <t>3 minggu lalu di 
 Google</t>
@@ -8795,25 +8586,24 @@
           <t>0812-2797-5858</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr"/>
+      <c r="E206" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F206" t="n">
-        <v>4.5</v>
+        <v>-7.73046</v>
       </c>
       <c r="G206" t="n">
-        <v>-7.73046</v>
-      </c>
-      <c r="H206" t="n">
         <v>110.357536</v>
       </c>
-      <c r="I206" t="b">
-        <v>0</v>
+      <c r="H206" t="b">
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/By+The+River+Cottage/@-7.7183079,110.3072452,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5936117bc08b:0x66d395a9149d72cc!5m2!4m1!1i2!8m2!3d-7.7304604!4d110.3575356!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11sqktl6g1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J206" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/By+The+River+Cottage/@-7.7183079,110.3072452,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5936117bc08b:0x66d395a9149d72cc!5m2!4m1!1i2!8m2!3d-7.7304604!4d110.3575356!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11sqktl6g1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K206" t="inlineStr">
         <is>
           <t>2 minggu lalu di 
 Google</t>
@@ -8837,25 +8627,24 @@
         </is>
       </c>
       <c r="D207" t="inlineStr"/>
-      <c r="E207" t="inlineStr"/>
+      <c r="E207" t="n">
+        <v>2.4</v>
+      </c>
       <c r="F207" t="n">
-        <v>2.4</v>
+        <v>-7.7166</v>
       </c>
       <c r="G207" t="n">
-        <v>-7.7166</v>
-      </c>
-      <c r="H207" t="n">
         <v>110.345779</v>
       </c>
-      <c r="I207" t="b">
-        <v>0</v>
+      <c r="H207" t="b">
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Omah+Kemiri+3+Homestay/@-7.7166005,110.2736813,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a592734d9aa59:0x3c4df848e617cd19!5m2!4m1!1i2!8m2!3d-7.7166005!4d110.3457791!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWxvZGdl4AEA!16s%2Fg%2F11j7crmmds?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J207" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Omah+Kemiri+3+Homestay/@-7.7166005,110.2736813,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a592734d9aa59:0x3c4df848e617cd19!5m2!4m1!1i2!8m2!3d-7.7166005!4d110.3457791!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWxvZGdl4AEA!16s%2Fg%2F11j7crmmds?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K207" t="inlineStr">
         <is>
           <t>3 hari lalu di 
 Google</t>
@@ -8879,25 +8668,24 @@
           <t>0877-4545-6898</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr"/>
+      <c r="E208" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F208" t="n">
-        <v>4.5</v>
+        <v>-7.730226</v>
       </c>
       <c r="G208" t="n">
-        <v>-7.730226</v>
-      </c>
-      <c r="H208" t="n">
         <v>110.348504</v>
       </c>
-      <c r="I208" t="b">
-        <v>0</v>
+      <c r="H208" t="b">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Omah+Mbah+Mandor+by+The+Lavana/@-7.7166005,110.2736813,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a58bc011c12ad:0xd9dd0cd7e65dac1e!5m2!4m1!1i2!8m2!3d-7.7302262!4d110.3485043!15sChFQZW5naW5hcGFuIFNsZW1hbpIBDmNvdHRhZ2VfcmVudGFs4AEA!16s%2Fg%2F11g002stzr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J208" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Omah+Mbah+Mandor+by+The+Lavana/@-7.7166005,110.2736813,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a58bc011c12ad:0xd9dd0cd7e65dac1e!5m2!4m1!1i2!8m2!3d-7.7302262!4d110.3485043!15sChFQZW5naW5hcGFuIFNsZW1hbpIBDmNvdHRhZ2VfcmVudGFs4AEA!16s%2Fg%2F11g002stzr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K208" t="inlineStr">
         <is>
           <t>5 hari lalu di 
 Google</t>
@@ -8921,25 +8709,24 @@
           <t>0822-5542-2712</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr"/>
+      <c r="E209" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F209" t="n">
-        <v>4.8</v>
+        <v>-7.723423</v>
       </c>
       <c r="G209" t="n">
-        <v>-7.723423</v>
-      </c>
-      <c r="H209" t="n">
         <v>110.328854</v>
       </c>
-      <c r="I209" t="b">
-        <v>0</v>
+      <c r="H209" t="b">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Lavillas+Jogja/@-7.7166005,110.2736813,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x85df7646908512fd:0xc87721d5464006d6!5m2!4m1!1i2!8m2!3d-7.7234231!4d110.328854!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11vryhpz_x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J209" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Lavillas+Jogja/@-7.7166005,110.2736813,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x85df7646908512fd:0xc87721d5464006d6!5m2!4m1!1i2!8m2!3d-7.7234231!4d110.328854!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11vryhpz_x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K209" t="inlineStr">
         <is>
           <t>2 minggu lalu di 
 Google</t>
@@ -8963,25 +8750,24 @@
           <t>0877-8842-3343</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr"/>
+      <c r="E210" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F210" t="n">
-        <v>4.5</v>
+        <v>-7.717131</v>
       </c>
       <c r="G210" t="n">
-        <v>-7.717131</v>
-      </c>
-      <c r="H210" t="n">
         <v>110.360346</v>
       </c>
-      <c r="I210" t="b">
-        <v>0</v>
+      <c r="H210" t="b">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Tama+Hotel+Jogja/@-7.7166005,110.2736813,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a59c3cc1abab1:0xf1d505f1f9ed1f06!5m2!4m1!1i2!8m2!3d-7.7171308!4d110.3603464!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11why4wvjk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J210" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Tama+Hotel+Jogja/@-7.7166005,110.2736813,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a59c3cc1abab1:0xf1d505f1f9ed1f06!5m2!4m1!1i2!8m2!3d-7.7171308!4d110.3603464!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11why4wvjk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K210" t="inlineStr">
         <is>
           <t>6 hari lalu di 
 Google</t>
@@ -9009,25 +8795,24 @@
           <t>(0274) 4360900</t>
         </is>
       </c>
-      <c r="E211" t="inlineStr"/>
+      <c r="E211" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F211" t="n">
-        <v>4.5</v>
+        <v>-7.710787</v>
       </c>
       <c r="G211" t="n">
-        <v>-7.710787</v>
-      </c>
-      <c r="H211" t="n">
         <v>110.370479</v>
       </c>
-      <c r="I211" t="b">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr">
+      <c r="H211" t="b">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Java+Village+Resort+By+Homee+Yogyakarta/@-7.7166005,110.2736813,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5f2a31870305:0x54bbf09aaa2b4850!5m2!4m1!1i2!8m2!3d-7.7107874!4d110.3704785!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F1pzykn4pt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -9050,25 +8835,24 @@
           <t>(021) 29707601</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr"/>
+      <c r="E212" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F212" t="n">
-        <v>4.2</v>
+        <v>-7.727522</v>
       </c>
       <c r="G212" t="n">
-        <v>-7.727522</v>
-      </c>
-      <c r="H212" t="n">
         <v>110.35618</v>
       </c>
-      <c r="I212" t="b">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr">
+      <c r="H212" t="b">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPOT+ON+2275+Omah+Jm/@-7.7166005,110.2736813,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5927a316be5f:0x652ea854959e0238!5m2!4m1!1i2!8m2!3d-7.7275219!4d110.3561796!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11j2cgh1v4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -9087,25 +8871,24 @@
           <t>0811-2652-284</t>
         </is>
       </c>
-      <c r="E213" t="inlineStr"/>
+      <c r="E213" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F213" t="n">
-        <v>4.9</v>
+        <v>-7.720249</v>
       </c>
       <c r="G213" t="n">
-        <v>-7.720249</v>
-      </c>
-      <c r="H213" t="n">
         <v>110.344885</v>
       </c>
-      <c r="I213" t="b">
-        <v>0</v>
+      <c r="H213" t="b">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rengganis+Homestay/@-7.7166005,110.2736813,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a59ca91f6ca67:0xa04bdf5f4bdc7d4b!5m2!4m1!1i2!8m2!3d-7.7202487!4d110.3448853!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWxvZGdl4AEA!16s%2Fg%2F11gjmt_lmg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J213" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Rengganis+Homestay/@-7.7166005,110.2736813,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a59ca91f6ca67:0xa04bdf5f4bdc7d4b!5m2!4m1!1i2!8m2!3d-7.7202487!4d110.3448853!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWxvZGdl4AEA!16s%2Fg%2F11gjmt_lmg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K213" t="inlineStr">
         <is>
           <t>sebulan lalu di 
 Google</t>
@@ -9133,25 +8916,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr"/>
+      <c r="E214" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F214" t="n">
-        <v>4.6</v>
+        <v>-7.713636</v>
       </c>
       <c r="G214" t="n">
-        <v>-7.713636</v>
-      </c>
-      <c r="H214" t="n">
         <v>110.359331</v>
       </c>
-      <c r="I214" t="b">
-        <v>0</v>
+      <c r="H214" t="b">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/RedDoorz+@+Artomoro+Guest+House/@-7.7166005,110.2736813,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5fab21287f67:0x8986bd8688f18a62!5m2!4m1!1i2!8m2!3d-7.7136363!4d110.3593309!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11mvgr1_fw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J214" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/RedDoorz+@+Artomoro+Guest+House/@-7.7166005,110.2736813,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5fab21287f67:0x8986bd8688f18a62!5m2!4m1!1i2!8m2!3d-7.7136363!4d110.3593309!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11mvgr1_fw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K214" t="inlineStr">
         <is>
           <t>2 hari lalu di 
 Google</t>
@@ -9175,25 +8957,24 @@
           <t>0816-843-659</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr"/>
+      <c r="E215" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F215" t="n">
-        <v>4.8</v>
+        <v>-7.699381</v>
       </c>
       <c r="G215" t="n">
-        <v>-7.699381</v>
-      </c>
-      <c r="H215" t="n">
         <v>110.363868</v>
       </c>
-      <c r="I215" t="b">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr">
+      <c r="H215" t="b">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kusuma+Syariah+Villa/@-7.7166005,110.2736813,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5fc5d935f633:0xb7ec65ccf9056244!5m2!4m1!1i2!8m2!3d-7.6993809!4d110.3638681!15sChFQZW5naW5hcGFuIFNsZW1hbpIBC2d1ZXN0X2hvdXNl4AEA!16s%2Fg%2F11tjbz1c_g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -9216,25 +8997,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E216" t="inlineStr"/>
+      <c r="E216" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F216" t="n">
-        <v>4.2</v>
+        <v>-7.736192</v>
       </c>
       <c r="G216" t="n">
-        <v>-7.736192</v>
-      </c>
-      <c r="H216" t="n">
         <v>110.364325</v>
       </c>
-      <c r="I216" t="b">
-        <v>0</v>
+      <c r="H216" t="b">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/RedDoorz+near+Jombor+Bus+Station/@-7.7166005,110.2736813,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a58e839fbcb69:0xb6a3a72d4865740e!5m2!4m1!1i2!8m2!3d-7.7361917!4d110.364325!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11rg_q_hv_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J216" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/RedDoorz+near+Jombor+Bus+Station/@-7.7166005,110.2736813,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a58e839fbcb69:0xb6a3a72d4865740e!5m2!4m1!1i2!8m2!3d-7.7361917!4d110.364325!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11rg_q_hv_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K216" t="inlineStr">
         <is>
           <t>6 hari lalu di 
 Google</t>
@@ -9262,25 +9042,24 @@
           <t>(021) 29707601</t>
         </is>
       </c>
-      <c r="E217" t="inlineStr"/>
+      <c r="E217" t="n">
+        <v>1.8</v>
+      </c>
       <c r="F217" t="n">
-        <v>1.8</v>
+        <v>-7.742432</v>
       </c>
       <c r="G217" t="n">
-        <v>-7.742432</v>
-      </c>
-      <c r="H217" t="n">
         <v>110.39429</v>
       </c>
-      <c r="I217" t="b">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr">
+      <c r="H217" t="b">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPOT+ON+2881+Nabila+Homestay/@-7.742432,110.3221923,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a59f194415e55:0xc04a13d0a5bb3485!5m2!4m1!1i2!8m2!3d-7.742432!4d110.3942901!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11frqzlwqk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -9299,25 +9078,24 @@
           <t>0817-7008-0008</t>
         </is>
       </c>
-      <c r="E218" t="inlineStr"/>
+      <c r="E218" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F218" t="n">
-        <v>4.3</v>
+        <v>-7.692525</v>
       </c>
       <c r="G218" t="n">
-        <v>-7.692525</v>
-      </c>
-      <c r="H218" t="n">
         <v>110.333975</v>
       </c>
-      <c r="I218" t="b">
-        <v>0</v>
+      <c r="H218" t="b">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Villa+Rumah+Kita+-+Yogyakarta/@-7.6925251,110.2618776,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5f17fc16bd63:0x7567eb3ebd8f751e!5m2!4m1!1i2!8m2!3d-7.6925251!4d110.3339754!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBXZpbGxh4AEA!16s%2Fg%2F11sdnh0rjx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J218" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Rumah+Kita+-+Yogyakarta/@-7.6925251,110.2618776,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5f17fc16bd63:0x7567eb3ebd8f751e!5m2!4m1!1i2!8m2!3d-7.6925251!4d110.3339754!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBXZpbGxh4AEA!16s%2Fg%2F11sdnh0rjx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K218" t="inlineStr">
         <is>
           <t>6 bulan lalu di 
 Google</t>
@@ -9341,25 +9119,24 @@
           <t>0878-3974-5149</t>
         </is>
       </c>
-      <c r="E219" t="inlineStr"/>
+      <c r="E219" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F219" t="n">
-        <v>4.2</v>
+        <v>-7.744095</v>
       </c>
       <c r="G219" t="n">
-        <v>-7.744095</v>
-      </c>
-      <c r="H219" t="n">
         <v>110.3026</v>
       </c>
-      <c r="I219" t="b">
-        <v>0</v>
+      <c r="H219" t="b">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Villa+Kampung+Ayem+Yogyakarta/@-7.6925251,110.2618776,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7af64662ce695b:0x2956ffec4f343863!5m2!4m1!1i2!8m2!3d-7.7440946!4d110.3026002!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWxvZGdl4AEA!16s%2Fg%2F11ggng8nlr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J219" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Kampung+Ayem+Yogyakarta/@-7.6925251,110.2618776,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7af64662ce695b:0x2956ffec4f343863!5m2!4m1!1i2!8m2!3d-7.7440946!4d110.3026002!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWxvZGdl4AEA!16s%2Fg%2F11ggng8nlr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K219" t="inlineStr">
         <is>
           <t>sebulan lalu di 
 Google</t>
@@ -9383,25 +9160,24 @@
           <t>0822-5449-9775</t>
         </is>
       </c>
-      <c r="E220" t="inlineStr"/>
+      <c r="E220" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F220" t="n">
-        <v>4.1</v>
+        <v>-7.711533</v>
       </c>
       <c r="G220" t="n">
-        <v>-7.711533</v>
-      </c>
-      <c r="H220" t="n">
         <v>110.357276</v>
       </c>
-      <c r="I220" t="b">
-        <v>0</v>
+      <c r="H220" t="b">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Global+House+Syariah/@-7.6925251,110.2618776,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5f3b736a2ed5:0x466063d6cea7d711!5m2!4m1!1i2!8m2!3d-7.7115328!4d110.3572755!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11l1fpqqfn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J220" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Global+House+Syariah/@-7.6925251,110.2618776,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5f3b736a2ed5:0x466063d6cea7d711!5m2!4m1!1i2!8m2!3d-7.7115328!4d110.3572755!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11l1fpqqfn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K220" t="inlineStr">
         <is>
           <t>2 hari lalu di 
 Google</t>
@@ -9425,25 +9201,24 @@
           <t>0812-2548-0677</t>
         </is>
       </c>
-      <c r="E221" t="inlineStr"/>
+      <c r="E221" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F221" t="n">
-        <v>4.4</v>
+        <v>-7.730195</v>
       </c>
       <c r="G221" t="n">
-        <v>-7.730195</v>
-      </c>
-      <c r="H221" t="n">
         <v>110.37918</v>
       </c>
-      <c r="I221" t="b">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr">
+      <c r="H221" t="b">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/La+Luna+Resort+Yogyakarta/@-7.7301952,110.3070817,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a59288d7b5eb9:0x2fadfd3d2610b930!5m2!4m1!1i2!8m2!3d-7.7301952!4d110.3791795!15sChFQZW5naW5hcGFuIFNsZW1hbpIBDHJlc29ydF9ob3RlbOABAA!16s%2Fg%2F11np7j3dqm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -9466,25 +9241,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E222" t="inlineStr"/>
+      <c r="E222" t="n">
+        <v>3</v>
+      </c>
       <c r="F222" t="n">
-        <v>3</v>
+        <v>-7.711663</v>
       </c>
       <c r="G222" t="n">
-        <v>-7.711663</v>
-      </c>
-      <c r="H222" t="n">
         <v>110.357098</v>
       </c>
-      <c r="I222" t="b">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr">
+      <c r="H222" t="b">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Reddoorz+Syariah+near+Sleman+City+Hall+4/@-7.7116631,110.285,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5fabd82d2133:0x92d9514d45f952c6!5m2!4m1!1i2!8m2!3d-7.7116631!4d110.3570978!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11y46g3y0t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -9507,25 +9281,24 @@
           <t>0812-8686-095</t>
         </is>
       </c>
-      <c r="E223" t="inlineStr"/>
+      <c r="E223" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F223" t="n">
-        <v>4.6</v>
+        <v>-7.752467</v>
       </c>
       <c r="G223" t="n">
-        <v>-7.752467</v>
-      </c>
-      <c r="H223" t="n">
         <v>110.381173</v>
       </c>
-      <c r="I223" t="b">
-        <v>0</v>
+      <c r="H223" t="b">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Urbanview+Hotel+Syariah+Casa+Azmya+Yogyakarta+by+RedDoorz/@-7.7116631,110.285,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a593d53b58167:0xb86b48878bed3495!5m2!4m1!1i2!8m2!3d-7.752467!4d110.381173!15sChFQZW5naW5hcGFuIFNsZW1hbpIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11g_v6f165?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J223" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Urbanview+Hotel+Syariah+Casa+Azmya+Yogyakarta+by+RedDoorz/@-7.7116631,110.285,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a593d53b58167:0xb86b48878bed3495!5m2!4m1!1i2!8m2!3d-7.752467!4d110.381173!15sChFQZW5naW5hcGFuIFNsZW1hbpIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11g_v6f165?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K223" t="inlineStr">
         <is>
           <t>2 jam lalu di 
 Google</t>
@@ -9553,25 +9326,24 @@
           <t>0856-4274-3277</t>
         </is>
       </c>
-      <c r="E224" t="inlineStr"/>
+      <c r="E224" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F224" t="n">
-        <v>4.3</v>
+        <v>-7.750105</v>
       </c>
       <c r="G224" t="n">
-        <v>-7.750105</v>
-      </c>
-      <c r="H224" t="n">
         <v>110.333434</v>
       </c>
-      <c r="I224" t="b">
-        <v>0</v>
+      <c r="H224" t="b">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Limasan+Wongso/@-7.7116631,110.285,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a59aff25a993b:0xe64ad09ce42ec2a2!5m2!4m1!1i2!8m2!3d-7.7501053!4d110.3334336!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11fmz8xxfw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J224" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Limasan+Wongso/@-7.7116631,110.285,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a59aff25a993b:0xe64ad09ce42ec2a2!5m2!4m1!1i2!8m2!3d-7.7501053!4d110.3334336!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11fmz8xxfw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K224" t="inlineStr">
         <is>
           <t>sebulan lalu di 
 Google</t>
@@ -9599,25 +9371,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E225" t="inlineStr"/>
+      <c r="E225" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F225" t="n">
-        <v>4.3</v>
+        <v>-7.745872</v>
       </c>
       <c r="G225" t="n">
-        <v>-7.745872</v>
-      </c>
-      <c r="H225" t="n">
         <v>110.354277</v>
       </c>
-      <c r="I225" t="b">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr">
+      <c r="H225" t="b">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Happy+Syariah+Hotel+near+Jombor+Mitra+RedDoorz/@-7.7116631,110.285,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a59d77e66ba91:0x1ff66d159f992c1f!5m2!4m1!1i2!8m2!3d-7.7458722!4d110.3542767!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11nncqh3vn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -9640,25 +9411,24 @@
           <t>0877-3901-2880</t>
         </is>
       </c>
-      <c r="E226" t="inlineStr"/>
+      <c r="E226" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F226" t="n">
-        <v>4.8</v>
+        <v>-7.75715</v>
       </c>
       <c r="G226" t="n">
-        <v>-7.75715</v>
-      </c>
-      <c r="H226" t="n">
         <v>110.323571</v>
       </c>
-      <c r="I226" t="b">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr">
+      <c r="H226" t="b">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Rumah+Ukhi/@-7.75715,110.2514731,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7af7d34b002e49:0x5df12f06f9633605!5m2!4m1!1i2!8m2!3d-7.75715!4d110.3235709!15sChFQZW5naW5hcGFuIFNsZW1hbpIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11f4wv203v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -9681,25 +9451,24 @@
           <t>0813-8666-9967</t>
         </is>
       </c>
-      <c r="E227" t="inlineStr"/>
+      <c r="E227" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F227" t="n">
-        <v>4.4</v>
+        <v>-7.711279</v>
       </c>
       <c r="G227" t="n">
-        <v>-7.711279</v>
-      </c>
-      <c r="H227" t="n">
         <v>110.372777</v>
       </c>
-      <c r="I227" t="b">
-        <v>0</v>
+      <c r="H227" t="b">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Griya90TR+Guesthouse/@-7.7112786,110.3006787,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5fdc09f09379:0x764a86c7b01be0e1!5m2!4m1!1i2!8m2!3d-7.7112786!4d110.3727765!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBmhvc3RlbOABAA!16s%2Fg%2F11fq921tyb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J227" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Griya90TR+Guesthouse/@-7.7112786,110.3006787,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5fdc09f09379:0x764a86c7b01be0e1!5m2!4m1!1i2!8m2!3d-7.7112786!4d110.3727765!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBmhvc3RlbOABAA!16s%2Fg%2F11fq921tyb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K227" t="inlineStr">
         <is>
           <t>sebulan lalu di 
 Google</t>
@@ -9727,25 +9496,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E228" t="inlineStr"/>
+      <c r="E228" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F228" t="n">
-        <v>4.7</v>
+        <v>-7.74541</v>
       </c>
       <c r="G228" t="n">
-        <v>-7.74541</v>
-      </c>
-      <c r="H228" t="n">
         <v>110.378312</v>
       </c>
-      <c r="I228" t="b">
-        <v>0</v>
+      <c r="H228" t="b">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Just+11+Boutique+Residence+Syariah/@-7.7112786,110.3006787,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a594c81bd4dbf:0x4834762d360a5861!5m2!4m1!1i2!8m2!3d-7.7454096!4d110.3783121!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11g_z42sqp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J228" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Just+11+Boutique+Residence+Syariah/@-7.7112786,110.3006787,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a594c81bd4dbf:0x4834762d360a5861!5m2!4m1!1i2!8m2!3d-7.7454096!4d110.3783121!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11g_z42sqp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K228" t="inlineStr">
         <is>
           <t>3 minggu lalu di 
 Google</t>
@@ -9773,25 +9541,24 @@
           <t>(021) 29707601</t>
         </is>
       </c>
-      <c r="E229" t="inlineStr"/>
+      <c r="E229" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F229" t="n">
-        <v>4.5</v>
+        <v>-7.739298</v>
       </c>
       <c r="G229" t="n">
-        <v>-7.739298</v>
-      </c>
-      <c r="H229" t="n">
         <v>110.369731</v>
       </c>
-      <c r="I229" t="b">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr">
+      <c r="H229" t="b">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Ndalem+Padma+Asri+Guest+House/@-7.7112786,110.3006787,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a58fb8e1788b7:0x93d95bbe66e076fc!5m2!4m1!1i2!8m2!3d-7.7392981!4d110.3697307!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F1tfn67_x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -9814,25 +9581,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E230" t="inlineStr"/>
+      <c r="E230" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F230" t="n">
-        <v>4.5</v>
+        <v>-7.742856</v>
       </c>
       <c r="G230" t="n">
-        <v>-7.742856</v>
-      </c>
-      <c r="H230" t="n">
         <v>110.371669</v>
       </c>
-      <c r="I230" t="b">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr">
+      <c r="H230" t="b">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/RedDoorz+Syariah+near+Taman+Pelangi+Jogja+2/@-7.7112786,110.3006787,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a59e4c16fa245:0x534f8df5a4a7e35e!5m2!4m1!1i2!8m2!3d-7.7428558!4d110.3716688!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11fntbggq9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -9855,25 +9621,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E231" t="inlineStr"/>
+      <c r="E231" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F231" t="n">
-        <v>4.6</v>
+        <v>-7.74826</v>
       </c>
       <c r="G231" t="n">
-        <v>-7.74826</v>
-      </c>
-      <c r="H231" t="n">
         <v>110.339441</v>
       </c>
-      <c r="I231" t="b">
-        <v>0</v>
+      <c r="H231" t="b">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/House+Acasia+Syariah+near+Universitas+Aisyiah+Yogyakarta+RedPartner/@-7.7482596,110.2673431,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a590e54e32f05:0x23f3126b08fc774a!5m2!4m1!1i2!8m2!3d-7.7482596!4d110.3394409!15sChFQZW5naW5hcGFuIFNsZW1hbpIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11mtd7st64?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J231" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/House+Acasia+Syariah+near+Universitas+Aisyiah+Yogyakarta+RedPartner/@-7.7482596,110.2673431,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a590e54e32f05:0x23f3126b08fc774a!5m2!4m1!1i2!8m2!3d-7.7482596!4d110.3394409!15sChFQZW5naW5hcGFuIFNsZW1hbpIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11mtd7st64?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K231" t="inlineStr">
         <is>
           <t>2 minggu lalu di 
 Google</t>
@@ -9897,25 +9662,24 @@
           <t>(021) 29706666</t>
         </is>
       </c>
-      <c r="E232" t="inlineStr"/>
+      <c r="E232" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F232" t="n">
-        <v>4.4</v>
+        <v>-7.74251</v>
       </c>
       <c r="G232" t="n">
-        <v>-7.74251</v>
-      </c>
-      <c r="H232" t="n">
         <v>110.348206</v>
       </c>
-      <c r="I232" t="b">
-        <v>0</v>
+      <c r="H232" t="b">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Medical+Kost/@-7.7482596,110.2673431,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a589179f0fcc3:0x3efdbc457bf2754!5m2!4m1!1i2!8m2!3d-7.7425098!4d110.3482059!15sChFQZW5naW5hcGFuIFNsZW1hbpIBE2V4dGVuZGVkX3N0YXlfaG90ZWzgAQA!16s%2Fg%2F11b_031h1p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J232" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Medical+Kost/@-7.7482596,110.2673431,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a589179f0fcc3:0x3efdbc457bf2754!5m2!4m1!1i2!8m2!3d-7.7425098!4d110.3482059!15sChFQZW5naW5hcGFuIFNsZW1hbpIBE2V4dGVuZGVkX3N0YXlfaG90ZWzgAQA!16s%2Fg%2F11b_031h1p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K232" t="inlineStr">
         <is>
           <t>2 minggu lalu di 
 Google</t>
@@ -9943,25 +9707,24 @@
           <t>(021) 29707601</t>
         </is>
       </c>
-      <c r="E233" t="inlineStr"/>
+      <c r="E233" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F233" t="n">
-        <v>3.9</v>
+        <v>-7.66288</v>
       </c>
       <c r="G233" t="n">
-        <v>-7.66288</v>
-      </c>
-      <c r="H233" t="n">
         <v>110.413847</v>
       </c>
-      <c r="I233" t="b">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr">
+      <c r="H233" t="b">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pakemsari+Hotel+%26+Villa/@-7.6628799,110.3417487,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5fdb8f44fc59:0x70e247ab4aef4da8!5m2!4m1!1i2!8m2!3d-7.6628799!4d110.4138465!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F1pzs72r9h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -9980,25 +9743,24 @@
           <t>0811-2557-899</t>
         </is>
       </c>
-      <c r="E234" t="inlineStr"/>
+      <c r="E234" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F234" t="n">
-        <v>4.9</v>
+        <v>-7.708669</v>
       </c>
       <c r="G234" t="n">
-        <v>-7.708669</v>
-      </c>
-      <c r="H234" t="n">
         <v>110.355706</v>
       </c>
-      <c r="I234" t="b">
-        <v>0</v>
+      <c r="H234" t="b">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Swasa+Living/@-7.7086694,110.2836084,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5f86dab6a409:0xb4e58e902c637db!5m2!4m1!1i2!8m2!3d-7.7086694!4d110.3557062!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11s1r5_kj2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J234" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Swasa+Living/@-7.7086694,110.2836084,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5f86dab6a409:0xb4e58e902c637db!5m2!4m1!1i2!8m2!3d-7.7086694!4d110.3557062!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11s1r5_kj2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K234" t="inlineStr">
         <is>
           <t>4 minggu lalu di 
 Google</t>
@@ -10026,25 +9788,24 @@
           <t>0812-2795-5050</t>
         </is>
       </c>
-      <c r="E235" t="inlineStr"/>
+      <c r="E235" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F235" t="n">
-        <v>4.8</v>
+        <v>-7.73498</v>
       </c>
       <c r="G235" t="n">
-        <v>-7.73498</v>
-      </c>
-      <c r="H235" t="n">
         <v>110.380038</v>
       </c>
-      <c r="I235" t="b">
-        <v>0</v>
+      <c r="H235" t="b">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Villa+Verde+Jogja/@-7.7086694,110.2836084,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a59223f2f321d:0x2df81da14426f431!5m2!4m1!1i2!8m2!3d-7.7349804!4d110.3800383!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBXZpbGxh4AEA!16s%2Fg%2F11tjdlpcc3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J235" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Verde+Jogja/@-7.7086694,110.2836084,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a59223f2f321d:0x2df81da14426f431!5m2!4m1!1i2!8m2!3d-7.7349804!4d110.3800383!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBXZpbGxh4AEA!16s%2Fg%2F11tjdlpcc3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K235" t="inlineStr">
         <is>
           <t>6 hari lalu di 
 Google</t>
@@ -10072,25 +9833,24 @@
           <t>0896-7640-3110</t>
         </is>
       </c>
-      <c r="E236" t="inlineStr"/>
+      <c r="E236" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F236" t="n">
-        <v>4.8</v>
+        <v>-7.707588</v>
       </c>
       <c r="G236" t="n">
-        <v>-7.707588</v>
-      </c>
-      <c r="H236" t="n">
         <v>110.365109</v>
       </c>
-      <c r="I236" t="b">
-        <v>0</v>
+      <c r="H236" t="b">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Casa+Familia/@-7.7086694,110.2836084,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5f21722f0cb9:0x4217a6c15f5f24a8!5m2!4m1!1i2!8m2!3d-7.7075875!4d110.3651086!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11fvs1rblv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J236" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Casa+Familia/@-7.7086694,110.2836084,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5f21722f0cb9:0x4217a6c15f5f24a8!5m2!4m1!1i2!8m2!3d-7.7075875!4d110.3651086!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11fvs1rblv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K236" t="inlineStr">
         <is>
           <t>3 minggu lalu di 
 Google</t>
